--- a/src/P07_af_all/T05_ml_auto_optuna/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T05_ml_auto_optuna/S03_calculate_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.6523137545005282</v>
       </c>
       <c r="F2" t="n">
-        <v>1.299092066844858</v>
+        <v>1.028374321913231</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>1.628995921844158</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>1.743609305224334</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3476862454994715</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.01623477259298234</v>
+        <v>0.1955383518674353</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.8536684721030727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8351890809873422</v>
+        <v>0.7949280923805851</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>1.239593464983096</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3.168141660714054</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.146331527896927</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01849245890481988</v>
+        <v>0.03060482243841689</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.965801647312</v>
+        <v>0.5900056857289574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8250675617648437</v>
+        <v>0.5907822501503027</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9780046218171787</v>
+        <v>1.415670103326625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9777865276837043</v>
+        <v>1.28224721160287</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03419835268800042</v>
+        <v>0.4099943142710428</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03273752197704871</v>
+        <v>0.3074003515178481</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9886005491039994</v>
+        <v>0.6986626374441863</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9864495698656816</v>
+        <v>0.8046948881480395</v>
       </c>
       <c r="G5" t="n">
-        <v>0.992668207272393</v>
+        <v>1.428086496717959</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9925955092279013</v>
+        <v>2.06466605918042</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0113994508960004</v>
+        <v>0.3013373625558136</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.000663236506918167</v>
+        <v>0.1778478419412333</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.7146104891887523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9577978802687206</v>
+        <v>0.7044605761115416</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>1.60654003586116</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1.603156291138492</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2853895108112477</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.09774667043467788</v>
+        <v>0.1926070543589252</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.8573130254107367</v>
       </c>
       <c r="F7" t="n">
-        <v>0.903627347240202</v>
+        <v>0.8854082608067781</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1.379844130714177</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1.300614583479562</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1426869745892636</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01013431110024077</v>
+        <v>0.01023218663747127</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9776722195741211</v>
+        <v>0.6284681375699904</v>
       </c>
       <c r="F8" t="n">
-        <v>1.152240621472254</v>
+        <v>0.8198868309375105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.989723428146517</v>
+        <v>1.741159134506538</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9948492570071791</v>
+        <v>1.377578426171049</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02232778042587846</v>
+        <v>0.3715318624300094</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.04382353714786302</v>
+        <v>0.2572582879115654</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9925574065247069</v>
+        <v>0.733463884056493</v>
       </c>
       <c r="F9" t="n">
-        <v>1.004555282993725</v>
+        <v>0.8032518892852766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.996574476048839</v>
+        <v>1.575847767027292</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9982830856690598</v>
+        <v>1.427116433596368</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007442593475292747</v>
+        <v>0.2665361159435068</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.05056817289426078</v>
+        <v>0.1533658429693205</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.6565821181395869</v>
       </c>
       <c r="F10" t="n">
-        <v>1.139861643587318</v>
+        <v>0.9082421552244734</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1.216288914589793</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.746372516671626</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.3434178818604128</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01295196553465061</v>
+        <v>0.192879520517368</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.8803970071214517</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9216405544709302</v>
+        <v>0.8618750075159339</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>1.529361470532382</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2.419837376410827</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.1196029928785478</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0001077224461030202</v>
+        <v>0.06474617830289253</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.986758226751636</v>
+        <v>0.6210908060022056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7262511014880675</v>
+        <v>0.48810420995165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9890220476754453</v>
+        <v>1.467361879392424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9917942537641629</v>
+        <v>1.129277842173557</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01324177324836351</v>
+        <v>0.3789091939977942</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01102099480947749</v>
+        <v>0.3353196780036553</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9955860755838786</v>
+        <v>0.7193566437544147</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9292510998487721</v>
+        <v>0.7527404575640192</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9963406825584818</v>
+        <v>1.404337421504866</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9972647512547209</v>
+        <v>1.76516257841867</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004413924416121391</v>
+        <v>0.2806433562455853</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0006795643904254171</v>
+        <v>0.1976484589413053</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.7072886561473802</v>
       </c>
       <c r="F14" t="n">
-        <v>1.147110214411695</v>
+        <v>0.8197094270322395</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>1.305261453643694</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.942766827106597</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.2927113438526197</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01426170520617553</v>
+        <v>0.2752223188408389</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.8824309875673454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9986206743398794</v>
+        <v>0.9395625568114719</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>1.929645326031145</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1.055551985144876</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.1175690124326541</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.001843744843622375</v>
+        <v>0.05740498407658123</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.9555933567396995</v>
+        <v>0.5886003926878324</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8091672297313792</v>
+        <v>0.6327716054954146</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9779214720083526</v>
+        <v>1.417363516809417</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9597605779857349</v>
+        <v>1.220280505781157</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04440664326030141</v>
+        <v>0.4113996073121681</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0416941603199974</v>
+        <v>0.2506014795838302</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9851977855798992</v>
+        <v>0.7261066788008527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.984966039494318</v>
+        <v>0.7973478631130422</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9926404906694507</v>
+        <v>1.550756765494752</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9865868593285784</v>
+        <v>1.406199772677543</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01480221442010047</v>
+        <v>0.2738933211991468</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008529570090066163</v>
+        <v>0.1944095941670832</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.594682508046053</v>
       </c>
       <c r="F18" t="n">
-        <v>1.166361834939811</v>
+        <v>0.9961871236494823</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>28.60439687936323</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>1.39221628036203</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.4053174919539465</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0001404403760156825</v>
+        <v>0.1457822103763159</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.7995711843981608</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7899823659420976</v>
+        <v>0.8234646711839984</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1.415061879403896</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2.267565731822388</v>
       </c>
       <c r="I19" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0.200428815601839</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.03182367886598492</v>
+        <v>-0.07555609222234083</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.9639960118321824</v>
+        <v>0.5645679638081302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9176738565061295</v>
+        <v>0.6863420213059656</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9777906520939964</v>
+        <v>1.438474948523545</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9792436325806624</v>
+        <v>1.318530482283848</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03600398816781902</v>
+        <v>0.4354320361918707</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03449545017151112</v>
+        <v>0.2778846867967136</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.9879986706107272</v>
+        <v>0.6529405520841146</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9580060191293459</v>
+        <v>0.8353312720464819</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9925968840313321</v>
+        <v>10.48597790243022</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9930812108602209</v>
+        <v>1.659437498156089</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01200132938927304</v>
+        <v>0.3470594479158855</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008437769765031374</v>
+        <v>0.1160369349835626</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.47773735586094</v>
+        <v>0.4954095655374162</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9750857392369361</v>
+        <v>0.9402200130828274</v>
       </c>
       <c r="G22" t="n">
-        <v>1.713034064193641</v>
+        <v>1.636065931702724</v>
       </c>
       <c r="H22" t="n">
-        <v>1.628579374829796</v>
+        <v>1.500873489554126</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5222626441390599</v>
+        <v>0.5045904344625836</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2372241661988026</v>
+        <v>0.2644984173421907</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6610914148696618</v>
+        <v>0.6796589270031468</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9071204610434698</v>
+        <v>0.8475771882474625</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432027712009873</v>
+        <v>1.286726426833986</v>
       </c>
       <c r="H23" t="n">
-        <v>6.586558308943015</v>
+        <v>4.97360171198957</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3389085851303379</v>
+        <v>0.3203410729968531</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1062110005064105</v>
+        <v>-0.03359944977881568</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3401163924385415</v>
+        <v>0.3519480908943523</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4639806671077005</v>
+        <v>0.4678833371747194</v>
       </c>
       <c r="G24" t="n">
-        <v>1.166875089209128</v>
+        <v>1.107561416041237</v>
       </c>
       <c r="H24" t="n">
-        <v>1.20479421917824</v>
+        <v>1.149987662812035</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6598836075614586</v>
+        <v>0.6480519091056479</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4560553455024227</v>
+        <v>0.4514800761610175</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4929817210563812</v>
+        <v>0.5090055278116384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7820622891293686</v>
+        <v>0.7518935128350032</v>
       </c>
       <c r="G25" t="n">
-        <v>1.43731228847088</v>
+        <v>1.343451258192649</v>
       </c>
       <c r="H25" t="n">
-        <v>3.139977300983684</v>
+        <v>2.54148762145191</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5070182789436186</v>
+        <v>0.4909944721883614</v>
       </c>
       <c r="J25" t="n">
-        <v>0.195689503731605</v>
+        <v>0.227459681241464</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5107104986014677</v>
+        <v>0.535929662846991</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6300687291243019</v>
+        <v>0.6149607300687141</v>
       </c>
       <c r="G26" t="n">
-        <v>1.665480522722702</v>
+        <v>1.622741152722153</v>
       </c>
       <c r="H26" t="n">
-        <v>1.662667981122478</v>
+        <v>1.518940372678174</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4892895013985323</v>
+        <v>0.464070337153009</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2778686779436599</v>
+        <v>0.295184184692901</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6673716453370846</v>
+        <v>0.7067466048861447</v>
       </c>
       <c r="F27" t="n">
-        <v>1.010686477283928</v>
+        <v>0.9514492239700736</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786055992635371</v>
+        <v>1.628842243147485</v>
       </c>
       <c r="H27" t="n">
-        <v>1.758220801562199</v>
+        <v>1.55445048570438</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3326283546629157</v>
+        <v>0.2932533951138556</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1298120752847767</v>
+        <v>-0.06359276236733002</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3624593422513316</v>
+        <v>0.3880509136228909</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6112489805221366</v>
+        <v>0.5971816622611001</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65055323978985</v>
+        <v>1.554574914802023</v>
       </c>
       <c r="H28" t="n">
-        <v>1.337686033007109</v>
+        <v>1.251728933501978</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6375406577486683</v>
+        <v>0.6119490863771089</v>
       </c>
       <c r="J28" t="n">
-        <v>0.44626490245466</v>
+        <v>0.4590085929927161</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5135138287299612</v>
+        <v>0.5435757271186756</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7506680623101224</v>
+        <v>0.7211972054332959</v>
       </c>
       <c r="G29" t="n">
-        <v>1.700696585049308</v>
+        <v>1.602052770223887</v>
       </c>
       <c r="H29" t="n">
-        <v>1.586191605230595</v>
+        <v>1.441706597294844</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4864861712700388</v>
+        <v>0.4564242728813243</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1981071683711808</v>
+        <v>0.2302000051060954</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4091479072047386</v>
+        <v>0.4788154633713209</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9679884337332375</v>
+        <v>0.9358575991780945</v>
       </c>
       <c r="G30" t="n">
-        <v>1.377977910803385</v>
+        <v>1.296701818231561</v>
       </c>
       <c r="H30" t="n">
-        <v>2.291378693968412</v>
+        <v>2.072150530399186</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5908520927952611</v>
+        <v>0.5211845366286787</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1397852607102152</v>
+        <v>0.1683387191058064</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.662248872524793</v>
+        <v>0.7083725160622527</v>
       </c>
       <c r="F31" t="n">
-        <v>1.027662185304082</v>
+        <v>0.9155159477801303</v>
       </c>
       <c r="G31" t="n">
-        <v>2.394329943442945</v>
+        <v>2.075740430538085</v>
       </c>
       <c r="H31" t="n">
-        <v>5.017066392112125</v>
+        <v>3.339040278731127</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3377511274752067</v>
+        <v>0.2916274839377471</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.1151558843658373</v>
+        <v>0.006538324560726227</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3414000174767552</v>
+        <v>0.3839658871807888</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4122105496757505</v>
+        <v>0.383142652246836</v>
       </c>
       <c r="G32" t="n">
-        <v>1.244311748247785</v>
+        <v>1.177102375327495</v>
       </c>
       <c r="H32" t="n">
-        <v>1.060179055040575</v>
+        <v>0.9293897572501421</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6585999825232447</v>
+        <v>0.6160341128192111</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4386685562169019</v>
+        <v>0.4782520284117463</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.4709322657354287</v>
+        <v>0.5237179555381209</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8026203895710236</v>
+        <v>0.7448387330683536</v>
       </c>
       <c r="G33" t="n">
-        <v>1.672206534164705</v>
+        <v>1.516514874699046</v>
       </c>
       <c r="H33" t="n">
-        <v>2.789541380373704</v>
+        <v>2.113526855460152</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5290677342645712</v>
+        <v>0.4762820444618791</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1544326441870932</v>
+        <v>0.2177096906927597</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6768835001492951</v>
+        <v>0.5159735516428384</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8359633490425333</v>
+        <v>0.7832160593168959</v>
       </c>
       <c r="G34" t="n">
-        <v>1.113541832819579</v>
+        <v>1.07402229279179</v>
       </c>
       <c r="H34" t="n">
-        <v>2.505194788812083</v>
+        <v>3.659823912713687</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3231164998507048</v>
+        <v>0.4840264483571615</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2608507872762772</v>
+        <v>0.307489336345049</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8390587101873845</v>
+        <v>0.6967274631951647</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9528106889713448</v>
+        <v>0.9513500684488014</v>
       </c>
       <c r="G35" t="n">
-        <v>2.389608111914937</v>
+        <v>3.126336047463027</v>
       </c>
       <c r="H35" t="n">
-        <v>1.117915648662381</v>
+        <v>1.168266351404772</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1609412898126149</v>
+        <v>0.3032725368048349</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04411409327462201</v>
+        <v>0.0455794279824856</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.5078962611920371</v>
+        <v>0.367939790104397</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5206900921734188</v>
+        <v>0.4868981185528409</v>
       </c>
       <c r="G36" t="n">
-        <v>1.097065487467757</v>
+        <v>1.068087305168283</v>
       </c>
       <c r="H36" t="n">
-        <v>1.047106701061125</v>
+        <v>1.143402411197776</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4921037388079633</v>
+        <v>0.6320602098956032</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3833408748412198</v>
+        <v>0.4233610887908908</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6746128238429056</v>
+        <v>0.5268802683141333</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7698213767290989</v>
+        <v>0.7404880821061793</v>
       </c>
       <c r="G37" t="n">
-        <v>1.533405144067425</v>
+        <v>1.756148548474366</v>
       </c>
       <c r="H37" t="n">
-        <v>1.55673904617853</v>
+        <v>1.990497558438745</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3253871761570941</v>
+        <v>0.4731197316858664</v>
       </c>
       <c r="J37" t="n">
-        <v>0.229435251797373</v>
+        <v>0.2588099510394751</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.4211863416790043</v>
+        <v>0.3942182699963869</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9582386322010281</v>
+        <v>0.9744589188909936</v>
       </c>
       <c r="G38" t="n">
-        <v>33.08670776836673</v>
+        <v>36.27582567709258</v>
       </c>
       <c r="H38" t="n">
-        <v>1.55486477464055</v>
+        <v>1.534576269650018</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5788136583209953</v>
+        <v>0.6057817300036128</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1783225591873869</v>
+        <v>0.1644138696305443</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6443920769526077</v>
+        <v>0.6163571512372321</v>
       </c>
       <c r="F39" t="n">
-        <v>0.952765509244496</v>
+        <v>0.9262124367970741</v>
       </c>
       <c r="G39" t="n">
-        <v>1.3741015706047</v>
+        <v>1.326624564394374</v>
       </c>
       <c r="H39" t="n">
-        <v>2.950441327041513</v>
+        <v>3.004762478688865</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3556079230473922</v>
+        <v>0.3836428487627678</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.244440452380092</v>
+        <v>-0.209758553037668</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3446540201289665</v>
+        <v>0.3206562403674119</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4893960651915847</v>
+        <v>0.4841860261910264</v>
       </c>
       <c r="G40" t="n">
-        <v>1.245186139065578</v>
+        <v>1.157837627256606</v>
       </c>
       <c r="H40" t="n">
-        <v>1.181629548702865</v>
+        <v>1.172377358226752</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6553459798710339</v>
+        <v>0.6793437596325885</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4850957949160246</v>
+        <v>0.4905773898466843</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4700774795868596</v>
+        <v>0.4437438872003437</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8001334022123695</v>
+        <v>0.7949524606263648</v>
       </c>
       <c r="G41" t="n">
-        <v>11.90199849267899</v>
+        <v>12.92009595624784</v>
       </c>
       <c r="H41" t="n">
-        <v>1.895645216794976</v>
+        <v>1.903905368855212</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5299225204131405</v>
+        <v>0.5562561127996564</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1396593005744396</v>
+        <v>0.1484109021465198</v>
       </c>
     </row>
     <row r="42">
@@ -1943,22 +1943,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.308751219687099e-13</v>
+        <v>1.788907029532676e-13</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9669470252435357</v>
+        <v>0.9782149606529488</v>
       </c>
       <c r="G42" t="n">
-        <v>8.268047697106173e-07</v>
+        <v>8.305657556499896e-07</v>
       </c>
       <c r="H42" t="n">
-        <v>1.432483157342833</v>
+        <v>1.476995951481033</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9999999999998691</v>
+        <v>0.9999999999998211</v>
       </c>
       <c r="J42" t="n">
-        <v>0.243590800539331</v>
+        <v>0.2347762845626549</v>
       </c>
     </row>
     <row r="43">
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.843623125248752e-13</v>
+        <v>2.4247488666509e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8789698686091845</v>
+        <v>0.8508768633549878</v>
       </c>
       <c r="G43" t="n">
-        <v>3.342402133792004e-07</v>
+        <v>3.882270709469121e-07</v>
       </c>
       <c r="H43" t="n">
-        <v>4.612935507647387</v>
+        <v>4.18374784011299</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9999999999998156</v>
+        <v>0.9999999999997575</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.07188204822397859</v>
+        <v>-0.03762332208552421</v>
       </c>
     </row>
     <row r="44">
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.462125327691415e-13</v>
+        <v>3.425510499733075e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7197096352878202</v>
+        <v>0.6994201551757295</v>
       </c>
       <c r="G44" t="n">
-        <v>4.472478081499272e-07</v>
+        <v>4.870226351503544e-07</v>
       </c>
       <c r="H44" t="n">
-        <v>1.307635415866483</v>
+        <v>1.188313066823522</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9999999999997538</v>
+        <v>0.9999999999996575</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1562531875615009</v>
+        <v>0.1800394248594976</v>
       </c>
     </row>
     <row r="45">
@@ -2051,22 +2051,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.871499890875755e-13</v>
+        <v>2.546388798638884e-13</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8552088430468464</v>
+        <v>0.8428373263945553</v>
       </c>
       <c r="G45" t="n">
-        <v>5.36097597079915e-07</v>
+        <v>5.68605153915752e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>2.451018026952234</v>
+        <v>2.283018952805849</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9999999999998129</v>
+        <v>0.9999999999997454</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1093206466256177</v>
+        <v>0.1257307957788757</v>
       </c>
     </row>
     <row r="46">
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.7764599575594613</v>
+        <v>2.748686207549743e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7057169895616275</v>
+        <v>0.6256825505072865</v>
       </c>
       <c r="G46" t="n">
-        <v>1.623691094356629</v>
+        <v>5.854823096022816e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>1.519797841595942</v>
+        <v>1.415881944811947</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2235400424405387</v>
+        <v>0.9999999999997251</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1911670598570224</v>
+        <v>0.2828957437494535</v>
       </c>
     </row>
     <row r="47">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.8949498461551978</v>
+        <v>3.229622502462552e-13</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9666847929810618</v>
+        <v>0.9729376331382215</v>
       </c>
       <c r="G47" t="n">
-        <v>1.873774754065208</v>
+        <v>4.632232137149572e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>1.391525296522274</v>
+        <v>1.543464773395819</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1050501538448027</v>
+        <v>0.999999999999677</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.08062408734231874</v>
+        <v>-0.08761392491625108</v>
       </c>
     </row>
     <row r="48">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.7743386943812016</v>
+        <v>2.797538522116666e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9460371367398309</v>
+        <v>0.9038006172007108</v>
       </c>
       <c r="G48" t="n">
-        <v>1.673784866566983</v>
+        <v>6.521753383538149e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>1.273481206549503</v>
+        <v>1.296188480298769</v>
       </c>
       <c r="I48" t="n">
-        <v>0.225661305618798</v>
+        <v>0.9999999999997202</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1429777670194857</v>
+        <v>0.1812401511088499</v>
       </c>
     </row>
     <row r="49">
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.8152494993652867</v>
+        <v>2.925282410709654e-13</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8728129730941731</v>
+        <v>0.8341402669487393</v>
       </c>
       <c r="G49" t="n">
-        <v>1.723750238329607</v>
+        <v>5.669602872236844e-07</v>
       </c>
       <c r="H49" t="n">
-        <v>1.394934781555907</v>
+        <v>1.418511732835512</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1847505006347132</v>
+        <v>0.9999999999997075</v>
       </c>
       <c r="J49" t="n">
-        <v>0.08450691317806325</v>
+        <v>0.1255073233140175</v>
       </c>
     </row>
     <row r="50">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.196744831642817e-13</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9544061870986493</v>
+        <v>0.9242169453262998</v>
       </c>
       <c r="G50" t="n">
-        <v>2.799908899312216e-07</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2.316571998810249</v>
+        <v>2.217641398879628</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9999999999998803</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1518552900004222</v>
+        <v>0.178683328265717</v>
       </c>
     </row>
     <row r="51">
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.565913136927276e-13</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9745506341938699</v>
+        <v>0.9479145210923412</v>
       </c>
       <c r="G51" t="n">
-        <v>3.168362031017752e-07</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>4.061516179686122</v>
+        <v>3.630801448525656</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9999999999998435</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.05752249121843356</v>
+        <v>-0.02861861727369508</v>
       </c>
     </row>
     <row r="52">
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>9.896549980028719e-14</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6530582884963091</v>
+        <v>0.6391627600486234</v>
       </c>
       <c r="G52" t="n">
-        <v>3.597117354951574e-07</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.130528120536771</v>
+        <v>1.067434718231837</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9999999999999011</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1106919698088518</v>
+        <v>0.1296143313345431</v>
       </c>
     </row>
     <row r="53">
@@ -2339,22 +2339,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.250770988857656e-13</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8606717032629428</v>
+        <v>0.8370980754890883</v>
       </c>
       <c r="G53" t="n">
-        <v>3.188462761760514e-07</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.502872099677715</v>
+        <v>2.305292521879041</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9999999999998749</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.06834158953028013</v>
+        <v>0.09322634744218823</v>
       </c>
     </row>
     <row r="54">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.904601448818667e-13</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7856206652303255</v>
+        <v>0.7827904879437788</v>
       </c>
       <c r="G54" t="n">
-        <v>3.834652313124343e-07</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.608083446192838</v>
+        <v>2.191021335156413</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9999999999998095</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3053632113542131</v>
+        <v>0.3078656216759281</v>
       </c>
     </row>
     <row r="55">
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3.192439287065164e-13</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.001369718754498</v>
+        <v>0.9740595611687415</v>
       </c>
       <c r="G55" t="n">
-        <v>6.654868645812183e-07</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.253722226925267</v>
+        <v>1.205242879153371</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9999999999996808</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.004601661860414996</v>
+        <v>0.0227966398681867</v>
       </c>
     </row>
     <row r="56">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.468287613936995e-13</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.693584237320133</v>
+        <v>0.6918122576918039</v>
       </c>
       <c r="G56" t="n">
-        <v>2.990870795770505e-07</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.155813029461991</v>
+        <v>1.14942914842204</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9999999999998531</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1785803965954793</v>
+        <v>0.1806789719742492</v>
       </c>
     </row>
     <row r="57">
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2.188442783273608e-13</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8268582071016523</v>
+        <v>0.8162207689347749</v>
       </c>
       <c r="G57" t="n">
-        <v>4.493463918235677e-07</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.672539567526699</v>
+        <v>1.515231120910608</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9999999999997811</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1597806486964255</v>
+        <v>0.1704470778394544</v>
       </c>
     </row>
     <row r="58">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.155248229389101e-13</v>
+        <v>3.190988925383401e-13</v>
       </c>
       <c r="F58" t="n">
-        <v>1.032699665118238</v>
+        <v>0.9868868410068283</v>
       </c>
       <c r="G58" t="n">
-        <v>3.420090916314022e-07</v>
+        <v>5.045873722820417e-07</v>
       </c>
       <c r="H58" t="n">
-        <v>1.577887646939983</v>
+        <v>1.402846004046677</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9999999999998844</v>
+        <v>0.9999999999996809</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1144731704112921</v>
+        <v>0.1537570844670181</v>
       </c>
     </row>
     <row r="59">
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.678660301951189e-13</v>
+        <v>3.888731810472703e-13</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9293530666648858</v>
+        <v>0.8293357622941988</v>
       </c>
       <c r="G59" t="n">
-        <v>4.917448083928872e-07</v>
+        <v>6.069577707814098e-07</v>
       </c>
       <c r="H59" t="n">
-        <v>2.888845901699892</v>
+        <v>2.044539722935254</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9999999999998321</v>
+        <v>0.9999999999996111</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.2138606398738689</v>
+        <v>-0.0832245302653345</v>
       </c>
     </row>
     <row r="60">
@@ -2591,22 +2591,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.265722205424953e-13</v>
+        <v>3.035993962615876e-13</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8338642393843967</v>
+        <v>0.7886471304903597</v>
       </c>
       <c r="G60" t="n">
-        <v>3.12383023155886e-07</v>
+        <v>4.399107920824034e-07</v>
       </c>
       <c r="H60" t="n">
-        <v>1.393096188830516</v>
+        <v>1.23062752831774</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9999999999998734</v>
+        <v>0.9999999999996964</v>
       </c>
       <c r="J60" t="n">
-        <v>0.122673364445433</v>
+        <v>0.1702472645383265</v>
       </c>
     </row>
     <row r="61">
@@ -2627,22 +2627,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.366543578921748e-13</v>
+        <v>3.371904899490661e-13</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9319723237225067</v>
+        <v>0.8682899112637954</v>
       </c>
       <c r="G61" t="n">
-        <v>3.820456410600586e-07</v>
+        <v>5.171519783819516e-07</v>
       </c>
       <c r="H61" t="n">
-        <v>1.953276579156797</v>
+        <v>1.559337751766557</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9999999999998633</v>
+        <v>0.9999999999996628</v>
       </c>
       <c r="J61" t="n">
-        <v>0.007761964994285238</v>
+        <v>0.08025993958000321</v>
       </c>
     </row>
     <row r="62">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5308386255719733</v>
+        <v>0.5544822138258216</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9218483443392903</v>
+        <v>0.9225299430125627</v>
       </c>
       <c r="G62" t="n">
-        <v>1.771416678756915</v>
+        <v>1.78950162327412</v>
       </c>
       <c r="H62" t="n">
-        <v>1.487151863810818</v>
+        <v>1.448680859290067</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4691613744280265</v>
+        <v>0.4455177861741781</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2788699381021368</v>
+        <v>0.278336747044774</v>
       </c>
     </row>
     <row r="63">
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.7306924885089709</v>
+        <v>0.7645515918440331</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9077514291183938</v>
+        <v>0.8726271106011552</v>
       </c>
       <c r="G63" t="n">
-        <v>1.323489264767791</v>
+        <v>1.3110743476069</v>
       </c>
       <c r="H63" t="n">
-        <v>5.402587484003845</v>
+        <v>4.166813137964878</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2693075114910288</v>
+        <v>0.2354484081559668</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.1069804504917482</v>
+        <v>-0.06414721147036717</v>
       </c>
     </row>
     <row r="64">
@@ -2735,22 +2735,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.3607476048910776</v>
+        <v>0.3786727098697349</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4924664238227336</v>
+        <v>0.489140935738419</v>
       </c>
       <c r="G64" t="n">
-        <v>1.168513395492765</v>
+        <v>1.188949763858112</v>
       </c>
       <c r="H64" t="n">
-        <v>1.266393745932316</v>
+        <v>1.28351365919078</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6392523951089226</v>
+        <v>0.6213272901302652</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4226602577479063</v>
+        <v>0.4265588716240711</v>
       </c>
     </row>
     <row r="65">
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5407595729906739</v>
+        <v>0.5659021718465301</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7740220657601392</v>
+        <v>0.7614326631173788</v>
       </c>
       <c r="G65" t="n">
-        <v>1.421139779672491</v>
+        <v>1.42984191157971</v>
       </c>
       <c r="H65" t="n">
-        <v>2.718711031248992</v>
+        <v>2.299669218815242</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4592404270093259</v>
+        <v>0.4340978281534696</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1981832484527647</v>
+        <v>0.2135828023994927</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6356862552518414</v>
+        <v>0.6016068762918767</v>
       </c>
       <c r="F66" t="n">
-        <v>0.699041383448071</v>
+        <v>0.6439900588773899</v>
       </c>
       <c r="G66" t="n">
-        <v>1.450707319084881</v>
+        <v>1.592844185566296</v>
       </c>
       <c r="H66" t="n">
-        <v>1.432087692319595</v>
+        <v>1.584395708527272</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3643137447481586</v>
+        <v>0.3983931237081233</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1988180732234689</v>
+        <v>0.261913230871478</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.7838669645069787</v>
+        <v>0.7651576049509808</v>
       </c>
       <c r="F67" t="n">
-        <v>1.014555570543831</v>
+        <v>0.9641183703587662</v>
       </c>
       <c r="G67" t="n">
-        <v>1.583067883615428</v>
+        <v>1.574164573741641</v>
       </c>
       <c r="H67" t="n">
-        <v>1.674927038894757</v>
+        <v>1.556923487745123</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2161330354930217</v>
+        <v>0.2348423950490195</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.1341372031891179</v>
+        <v>-0.07775517068604176</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.4709280503094984</v>
+        <v>0.4427394966929424</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6838833288044409</v>
+        <v>0.6458865602227118</v>
       </c>
       <c r="G68" t="n">
-        <v>1.538455734565133</v>
+        <v>1.511497498218068</v>
       </c>
       <c r="H68" t="n">
-        <v>1.353728838701924</v>
+        <v>1.17073281185555</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5290719496905014</v>
+        <v>0.5572605033070575</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3804648942536036</v>
+        <v>0.4148864557244115</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.6301604233561063</v>
+        <v>0.6031679926452671</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7991600942654479</v>
+        <v>0.751331663152956</v>
       </c>
       <c r="G69" t="n">
-        <v>1.524076979088481</v>
+        <v>1.559502085842001</v>
       </c>
       <c r="H69" t="n">
-        <v>1.486914523305425</v>
+        <v>1.437350669375981</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3698395766438936</v>
+        <v>0.3968320073547327</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1483819214293178</v>
+        <v>0.1996815053032825</v>
       </c>
     </row>
     <row r="70">
@@ -2951,22 +2951,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.6155058880652161</v>
+        <v>0.4225588079750081</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8980302216606082</v>
+        <v>0.9515630824830529</v>
       </c>
       <c r="G70" t="n">
-        <v>1.128886831913842</v>
+        <v>1.149280756339275</v>
       </c>
       <c r="H70" t="n">
-        <v>1.722191887801192</v>
+        <v>2.252430969883214</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3844941119347836</v>
+        <v>0.5774411920249916</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2019544799509284</v>
+        <v>0.1543818496270147</v>
       </c>
     </row>
     <row r="71">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8554263963555204</v>
+        <v>0.6718048902548214</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8589344546774195</v>
+        <v>0.9867373466442934</v>
       </c>
       <c r="G71" t="n">
-        <v>1.588700384687677</v>
+        <v>1.804671798188086</v>
       </c>
       <c r="H71" t="n">
-        <v>1.851684101628057</v>
+        <v>4.371952172679727</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1445736036444791</v>
+        <v>0.3281951097451783</v>
       </c>
       <c r="J71" t="n">
-        <v>0.06793708563416478</v>
+        <v>-0.07074676306039396</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.5284752068402845</v>
+        <v>0.3629517578589555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4199248666291653</v>
+        <v>0.3914870798634553</v>
       </c>
       <c r="G72" t="n">
-        <v>1.084127273519195</v>
+        <v>1.109466260066773</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8699452800985885</v>
+        <v>0.9211996499607243</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4715247931597153</v>
+        <v>0.6370482421410444</v>
       </c>
       <c r="J72" t="n">
-        <v>0.428163515342361</v>
+        <v>0.4668889286432786</v>
       </c>
     </row>
     <row r="73">
@@ -3059,22 +3059,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.6664691637536734</v>
+        <v>0.4857718186962617</v>
       </c>
       <c r="F73" t="n">
-        <v>0.725629847655731</v>
+        <v>0.7765958363302669</v>
       </c>
       <c r="G73" t="n">
-        <v>1.267238163373571</v>
+        <v>1.354472938198045</v>
       </c>
       <c r="H73" t="n">
-        <v>1.481273756509279</v>
+        <v>2.515194264174555</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3335308362463265</v>
+        <v>0.5142281813037383</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2326850269758182</v>
+        <v>0.1835080050699668</v>
       </c>
     </row>
     <row r="74">
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.6090558204952634</v>
+        <v>0.661510220334829</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8101261545420688</v>
+        <v>0.8158104899581692</v>
       </c>
       <c r="G74" t="n">
-        <v>1.02015502895764</v>
+        <v>1.406977737553881</v>
       </c>
       <c r="H74" t="n">
-        <v>3.730881288120139</v>
+        <v>3.658223618840633</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3909441795047365</v>
+        <v>0.3384897796651709</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2836957385482214</v>
+        <v>0.2786697143182353</v>
       </c>
     </row>
     <row r="75">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.8116099444262945</v>
+        <v>0.8202979138731223</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9704391914995799</v>
+        <v>0.9192413870388352</v>
       </c>
       <c r="G75" t="n">
-        <v>2.149163016036348</v>
+        <v>3.091654059057654</v>
       </c>
       <c r="H75" t="n">
-        <v>1.124234753594835</v>
+        <v>1.123514940454066</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1883900555737049</v>
+        <v>0.1797020861268771</v>
       </c>
       <c r="J75" t="n">
-        <v>0.02642869436121886</v>
+        <v>0.07779174087798546</v>
       </c>
     </row>
     <row r="76">
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.448325707325204</v>
+        <v>0.459482102046652</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5164164858444091</v>
+        <v>0.5072346129423722</v>
       </c>
       <c r="G76" t="n">
-        <v>1.097489347212051</v>
+        <v>1.248976457004309</v>
       </c>
       <c r="H76" t="n">
-        <v>1.181735014620178</v>
+        <v>1.1862529146884</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5516742926747964</v>
+        <v>0.5405178979533485</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3884021548227917</v>
+        <v>0.3992763500421688</v>
       </c>
     </row>
     <row r="77">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.6229971574155874</v>
+        <v>0.6470967454182012</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7656606106286857</v>
+        <v>0.7474288299797922</v>
       </c>
       <c r="G77" t="n">
-        <v>1.422269130735346</v>
+        <v>1.915869417871948</v>
       </c>
       <c r="H77" t="n">
-        <v>2.012283685445051</v>
+        <v>1.9893304913277</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3770028425844121</v>
+        <v>0.3529032545817983</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2328421959107442</v>
+        <v>0.2519126017461297</v>
       </c>
     </row>
     <row r="78">
@@ -3239,22 +3239,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.5496962843433043</v>
+        <v>0.5287293386641828</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9338882949735402</v>
+        <v>0.9695864857927968</v>
       </c>
       <c r="G78" t="n">
-        <v>29.6032412692914</v>
+        <v>33.5469294393059</v>
       </c>
       <c r="H78" t="n">
-        <v>1.371083884645691</v>
+        <v>1.529812929981196</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4503037156566951</v>
+        <v>0.4712706613358167</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1992026636870863</v>
+        <v>0.1685919190475886</v>
       </c>
     </row>
     <row r="79">
@@ -3275,22 +3275,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7620202427052882</v>
+        <v>0.7355292417114377</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8923287263764733</v>
+        <v>0.873259290474967</v>
       </c>
       <c r="G79" t="n">
-        <v>1.412875466047019</v>
+        <v>1.378553738321863</v>
       </c>
       <c r="H79" t="n">
-        <v>2.488077464325783</v>
+        <v>2.679132082948146</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2379797572947117</v>
+        <v>0.2644707582885621</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1655018502970698</v>
+        <v>-0.1405945911554984</v>
       </c>
     </row>
     <row r="80">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.4710764803624655</v>
+        <v>0.4056752658087898</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5301143787836264</v>
+        <v>0.5105997824920754</v>
       </c>
       <c r="G80" t="n">
-        <v>1.217324976857061</v>
+        <v>1.182724011439462</v>
       </c>
       <c r="H80" t="n">
-        <v>1.103941637700751</v>
+        <v>1.070423819460116</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5289235196375351</v>
+        <v>0.5943247341912108</v>
       </c>
       <c r="J80" t="n">
-        <v>0.442255174846342</v>
+        <v>0.4627869044733512</v>
       </c>
     </row>
     <row r="81">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.5942643358036861</v>
+        <v>0.5566446153948034</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7854438000445465</v>
+        <v>0.7844818529199463</v>
       </c>
       <c r="G81" t="n">
-        <v>10.74448057073183</v>
+        <v>12.03606906302241</v>
       </c>
       <c r="H81" t="n">
-        <v>1.654367662224075</v>
+        <v>1.759789610796486</v>
       </c>
       <c r="I81" t="n">
-        <v>0.405735664196314</v>
+        <v>0.4433553846051967</v>
       </c>
       <c r="J81" t="n">
-        <v>0.158651996078786</v>
+        <v>0.1635947441218136</v>
       </c>
     </row>
     <row r="82">
@@ -3383,22 +3383,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.8436928175111973</v>
+        <v>0.6776499683740981</v>
       </c>
       <c r="F82" t="n">
-        <v>1.108089443356445</v>
+        <v>0.997792944237005</v>
       </c>
       <c r="G82" t="n">
-        <v>1.265206785021847</v>
+        <v>1.636277572755418</v>
       </c>
       <c r="H82" t="n">
-        <v>1.277404828391898</v>
+        <v>1.682959630682663</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1563071824888024</v>
+        <v>0.3223500316259016</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1331799706721625</v>
+        <v>0.2194611054439847</v>
       </c>
     </row>
     <row r="83">
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9275367439802709</v>
+        <v>0.8505170855294931</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8147215704684283</v>
+        <v>0.8631590732458005</v>
       </c>
       <c r="G83" t="n">
-        <v>1.088982152976715</v>
+        <v>1.276336316532558</v>
       </c>
       <c r="H83" t="n">
-        <v>1.988549681587164</v>
+        <v>4.270668613782511</v>
       </c>
       <c r="I83" t="n">
-        <v>0.07246325601972903</v>
+        <v>0.1494829144705067</v>
       </c>
       <c r="J83" t="n">
-        <v>0.006467164718881202</v>
+        <v>-0.05260117373283113</v>
       </c>
     </row>
     <row r="84">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.7829825991565352</v>
+        <v>0.6165448578752033</v>
       </c>
       <c r="F84" t="n">
-        <v>0.704220290540097</v>
+        <v>0.6511549345375118</v>
       </c>
       <c r="G84" t="n">
-        <v>1.059275608826252</v>
+        <v>1.274323242339512</v>
       </c>
       <c r="H84" t="n">
-        <v>1.036264592259293</v>
+        <v>1.371209077685381</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2170174008434651</v>
+        <v>0.3834551421247969</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1744120180354403</v>
+        <v>0.2366228358191844</v>
       </c>
     </row>
     <row r="85">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.8514040535493343</v>
+        <v>0.7149039705929313</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8756771014549901</v>
+        <v>0.8373689840067726</v>
       </c>
       <c r="G85" t="n">
-        <v>1.137821515608271</v>
+        <v>1.395645710542496</v>
       </c>
       <c r="H85" t="n">
-        <v>1.434073034079452</v>
+        <v>2.441612440716851</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1485959464506655</v>
+        <v>0.2850960294070685</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1046863844754944</v>
+        <v>0.1344942558434456</v>
       </c>
     </row>
     <row r="86">
@@ -3527,22 +3527,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.8699893187778668</v>
+        <v>0.6650573607484911</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8267840485160913</v>
+        <v>0.7309803577170216</v>
       </c>
       <c r="G86" t="n">
-        <v>1.343458940084924</v>
+        <v>1.363795035223617</v>
       </c>
       <c r="H86" t="n">
-        <v>1.121098603723654</v>
+        <v>1.639505883150924</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1300106812221332</v>
+        <v>0.3349426392515089</v>
       </c>
       <c r="J86" t="n">
-        <v>0.05241026825784412</v>
+        <v>0.1622123306308848</v>
       </c>
     </row>
     <row r="87">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9082668389133257</v>
+        <v>0.8279887746028035</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8417654158574747</v>
+        <v>0.9279310670022668</v>
       </c>
       <c r="G87" t="n">
-        <v>1.164633323324693</v>
+        <v>1.356543259884676</v>
       </c>
       <c r="H87" t="n">
-        <v>1.091650275649658</v>
+        <v>1.647812237524483</v>
       </c>
       <c r="I87" t="n">
-        <v>0.09173316108667473</v>
+        <v>0.1720112253971968</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05901904025800542</v>
+        <v>-0.03730261371304433</v>
       </c>
     </row>
     <row r="88">
@@ -3599,22 +3599,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.8183176483702762</v>
+        <v>0.6138837850802435</v>
       </c>
       <c r="F88" t="n">
-        <v>1.06858398174512</v>
+        <v>0.9095885963359315</v>
       </c>
       <c r="G88" t="n">
-        <v>1.425915699815283</v>
+        <v>1.722216788051133</v>
       </c>
       <c r="H88" t="n">
-        <v>1.475387981092727</v>
+        <v>1.643396823555429</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1816823516297235</v>
+        <v>0.3861162149197562</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03196164865326467</v>
+        <v>0.1759967768159488</v>
       </c>
     </row>
     <row r="89">
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.8655246020204896</v>
+        <v>0.7023099734771794</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9123778153728953</v>
+        <v>0.8561666736850734</v>
       </c>
       <c r="G89" t="n">
-        <v>1.311335987741634</v>
+        <v>1.480851694386476</v>
       </c>
       <c r="H89" t="n">
-        <v>1.22937895348868</v>
+        <v>1.643571648076945</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1344753979795102</v>
+        <v>0.2976900265228205</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04779698572303778</v>
+        <v>0.1003021645779295</v>
       </c>
     </row>
     <row r="90">
@@ -3671,22 +3671,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.8432863519631204</v>
+        <v>0.6438099744320607</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9788786600201315</v>
+        <v>0.909124962421059</v>
       </c>
       <c r="G90" t="n">
-        <v>1.146166276726106</v>
+        <v>1.191963643800766</v>
       </c>
       <c r="H90" t="n">
-        <v>1.388482215858663</v>
+        <v>1.907743903158363</v>
       </c>
       <c r="I90" t="n">
-        <v>0.156713648036879</v>
+        <v>0.356190025567939</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1301075281674223</v>
+        <v>0.1920950031244016</v>
       </c>
     </row>
     <row r="91">
@@ -3707,22 +3707,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.9353083104111223</v>
+        <v>0.8492736680107066</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8382291682903081</v>
+        <v>0.8833009433712155</v>
       </c>
       <c r="G91" t="n">
-        <v>1.585925857515471</v>
+        <v>1.735980608932185</v>
       </c>
       <c r="H91" t="n">
-        <v>2.324245956543277</v>
+        <v>3.883205769107779</v>
       </c>
       <c r="I91" t="n">
-        <v>0.06469168958887728</v>
+        <v>0.1507263319892931</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09040519070045661</v>
+        <v>0.04149606869611333</v>
       </c>
     </row>
     <row r="92">
@@ -3743,22 +3743,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.7958405676728486</v>
+        <v>0.6546939517060818</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5879955059430112</v>
+        <v>0.5380781827145743</v>
       </c>
       <c r="G92" t="n">
-        <v>1.13230924448877</v>
+        <v>1.291807232073788</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9760503054442283</v>
+        <v>1.081635791331218</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2041594323271511</v>
+        <v>0.3453060482939179</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1992918023359836</v>
+        <v>0.2672671686618747</v>
       </c>
     </row>
     <row r="93">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.8581450766823635</v>
+        <v>0.7159258647162833</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8017011114178169</v>
+        <v>0.7768346961689493</v>
       </c>
       <c r="G93" t="n">
-        <v>1.288133792910115</v>
+        <v>1.406583828268913</v>
       </c>
       <c r="H93" t="n">
-        <v>1.562926159282056</v>
+        <v>2.29086182119912</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1418549233176365</v>
+        <v>0.2840741352837167</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1399348404012876</v>
+        <v>0.1669527468274635</v>
       </c>
     </row>
     <row r="94">
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.8667176584676753</v>
+        <v>0.7089753005389581</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9663658131592648</v>
+        <v>0.8321344768159705</v>
       </c>
       <c r="G94" t="n">
-        <v>1.173381427894161</v>
+        <v>1.193101594349417</v>
       </c>
       <c r="H94" t="n">
-        <v>1.595247049914277</v>
+        <v>2.848903776412719</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1332823415323245</v>
+        <v>0.2910246994610417</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1455504229726126</v>
+        <v>0.2642362322184807</v>
       </c>
     </row>
     <row r="95">
@@ -3851,22 +3851,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9156952431707255</v>
+        <v>0.8654848808846288</v>
       </c>
       <c r="F95" t="n">
-        <v>0.943856521418749</v>
+        <v>0.9254265157465748</v>
       </c>
       <c r="G95" t="n">
-        <v>1.890384368070889</v>
+        <v>2.417563190283144</v>
       </c>
       <c r="H95" t="n">
-        <v>1.031790441436887</v>
+        <v>1.09123799231464</v>
       </c>
       <c r="I95" t="n">
-        <v>0.08430475682927396</v>
+        <v>0.1345151191153706</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05309716060274416</v>
+        <v>0.07158664952936333</v>
       </c>
     </row>
     <row r="96">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.7914950815709906</v>
+        <v>0.6246126301370922</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7009496516572695</v>
+        <v>0.6711527013639833</v>
       </c>
       <c r="G96" t="n">
-        <v>1.076139593356224</v>
+        <v>1.2358048245674</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9792640758358541</v>
+        <v>1.204174113557386</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2085049184290101</v>
+        <v>0.3753873698629082</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1698574536590927</v>
+        <v>0.2051463166054954</v>
       </c>
     </row>
     <row r="97">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.8579693277364641</v>
+        <v>0.7330242705202265</v>
       </c>
       <c r="F97" t="n">
-        <v>0.870390662078428</v>
+        <v>0.8095712313088429</v>
       </c>
       <c r="G97" t="n">
-        <v>1.379968463107091</v>
+        <v>1.61548986973332</v>
       </c>
       <c r="H97" t="n">
-        <v>1.202100522395673</v>
+        <v>1.714771960761582</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1420306722635355</v>
+        <v>0.2669757294797732</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1228350124114828</v>
+        <v>0.1803230661177797</v>
       </c>
     </row>
     <row r="98">
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.8152979260806941</v>
+        <v>0.7109439640268272</v>
       </c>
       <c r="F98" t="n">
-        <v>1.064888694636507</v>
+        <v>1.015677220986031</v>
       </c>
       <c r="G98" t="n">
-        <v>17.44400532922319</v>
+        <v>24.23701030809995</v>
       </c>
       <c r="H98" t="n">
-        <v>1.117284352364879</v>
+        <v>1.304341800544332</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1847020739193053</v>
+        <v>0.2890560359731721</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08687148695999902</v>
+        <v>0.1290696997735035</v>
       </c>
     </row>
     <row r="99">
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.8973379855475241</v>
+        <v>0.8577214309819211</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7768393338361993</v>
+        <v>0.7999270459997654</v>
       </c>
       <c r="G99" t="n">
-        <v>1.12196554442616</v>
+        <v>1.475036588466424</v>
       </c>
       <c r="H99" t="n">
-        <v>1.595425728812431</v>
+        <v>1.895036831878161</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1026620144524758</v>
+        <v>0.1422785690180787</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.0146571036060561</v>
+        <v>-0.04481277432511077</v>
       </c>
     </row>
     <row r="100">
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.7458989638785144</v>
+        <v>0.6498939176280604</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8396194710809514</v>
+        <v>0.7825937718672847</v>
       </c>
       <c r="G100" t="n">
-        <v>1.138010584228809</v>
+        <v>1.329662979691496</v>
       </c>
       <c r="H100" t="n">
-        <v>1.104204975714389</v>
+        <v>1.356956955013233</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2541010361214867</v>
+        <v>0.3501060823719406</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1166181604653427</v>
+        <v>0.1766161343180263</v>
       </c>
     </row>
     <row r="101">
@@ -4067,22 +4067,742 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.8195116251689106</v>
+        <v>0.7395197708789362</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8937824998512193</v>
+        <v>0.866066012951027</v>
       </c>
       <c r="G101" t="n">
-        <v>6.567993819292724</v>
+        <v>9.013903292085958</v>
       </c>
       <c r="H101" t="n">
-        <v>1.2723050189639</v>
+        <v>1.518778529145242</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1804883748310896</v>
+        <v>0.260480229121064</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06294418127309491</v>
+        <v>0.08695768658880598</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.4817677300960921</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9797676243938382</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.572948614699973</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.425557390921496</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.5182322699039077</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.2335616894435665</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.6818402703830525</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.817037253606797</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.18069041967545</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.248546422873504</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3181597296169474</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.003643246318447257</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.356388749654508</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4957182917189644</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9846238985088188</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.050425653039656</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.6436112503454922</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4188479520104424</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5066655833778838</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7641743899065334</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.246087644294747</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.908176488944886</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.4933344166221159</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.2186842959241517</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5432369604641379</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6392097673138264</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.484880787046524</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.359790962369018</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.4567630395358621</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.2673919954999157</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7590422899718555</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9391822522055705</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.52889120380527</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.54896645148643</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.2409577100281448</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.04987993139727687</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4401825707965011</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6412178760325394</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.492018698914574</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.061914827027825</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.5598174292034986</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4191158522188568</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5808206070774984</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.739869965183979</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.501930229922123</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.323557413627758</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.4191793929225016</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.2122093054404981</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5098718871785481</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9185867571286148</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.269991920769884</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.932185021619063</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.4901281128214515</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1836866637435443</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7475472325568088</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.869330865268294</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.957295819469255</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.93555917149098</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.2524527674431909</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.05665553940964696</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4510640306417193</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4142208229019161</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.208698309580374</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.008364501426345</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5489359693582805</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4359310484715769</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5694943834590253</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7340461484329418</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.478662016606505</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.292036231512129</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.4305056165409747</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.2254244172082559</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6212997236032178</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.7954803405326772</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.132327117636669</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.653810285969602</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.3787002763967821</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2966453994479951</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8399289761009912</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9499926736631313</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.241616078521266</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.090704575770076</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.1600710238990083</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04694120379010724</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4572878235969725</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.530089874007271</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.115847040965526</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.057544938133436</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.5427121764030278</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.3722086076260869</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6395055077670607</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.75852096273436</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.49659674570782</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.600686599957705</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.3604944922329389</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2385984036213963</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4544778053680634</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9642905452050892</v>
+      </c>
+      <c r="G118" t="n">
+        <v>38.55617732700864</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.394310721862555</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.5455221946319362</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1731331207509764</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6969591109924804</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.8835085960639167</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.377769108420853</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.668383608745298</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.3030408890075195</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.1539815687065733</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4022789378051437</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5315006898591284</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.140911522276424</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.081048667757459</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.5977210621948568</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.440796606923343</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.517905284721896</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.793099943709378</v>
+      </c>
+      <c r="G121" t="n">
+        <v>13.6916193192353</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.714580999455103</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.4820947152781041</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1533160529892485</v>
       </c>
     </row>
   </sheetData>

--- a/src/P07_af_all/T05_ml_auto_optuna/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T05_ml_auto_optuna/S03_calculate_performance.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7146104891887523</v>
+        <v>0.7162384428723718</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7044605761115416</v>
+        <v>0.7199427555133573</v>
       </c>
       <c r="G6" t="n">
-        <v>1.60654003586116</v>
+        <v>1.600032903004152</v>
       </c>
       <c r="H6" t="n">
-        <v>1.603156291138492</v>
+        <v>1.656447987809693</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2853895108112477</v>
+        <v>0.2837615571276282</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1926070543589252</v>
+        <v>0.1748626938424379</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8573130254107367</v>
+        <v>0.8576745523083948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8854082608067781</v>
+        <v>0.8828363208789095</v>
       </c>
       <c r="G7" t="n">
-        <v>1.379844130714177</v>
+        <v>1.39983628104672</v>
       </c>
       <c r="H7" t="n">
-        <v>1.300614583479562</v>
+        <v>1.287516000315645</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1426869745892636</v>
+        <v>0.1423254476916055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01023218663747127</v>
+        <v>0.01310727090219999</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6284681375699904</v>
+        <v>0.6318998574125894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8198868309375105</v>
+        <v>0.8607119789936297</v>
       </c>
       <c r="G8" t="n">
-        <v>1.741159134506538</v>
+        <v>1.656499238098369</v>
       </c>
       <c r="H8" t="n">
-        <v>1.377578426171049</v>
+        <v>1.462580752612642</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3715318624300094</v>
+        <v>0.3681001425874104</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2572582879115654</v>
+        <v>0.2202744759764558</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.733463884056493</v>
+        <v>0.735270950864452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8032518892852766</v>
+        <v>0.821163685128632</v>
       </c>
       <c r="G9" t="n">
-        <v>1.575847767027292</v>
+        <v>1.55212280738308</v>
       </c>
       <c r="H9" t="n">
-        <v>1.427116433596368</v>
+        <v>1.46884824691266</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2665361159435068</v>
+        <v>0.2647290491355478</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1533658429693205</v>
+        <v>0.1360814802403643</v>
       </c>
     </row>
     <row r="10">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4954095655374162</v>
+        <v>0.4844803548039881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9402200130828274</v>
+        <v>0.9409011458800797</v>
       </c>
       <c r="G22" t="n">
-        <v>1.636065931702724</v>
+        <v>1.592783052399349</v>
       </c>
       <c r="H22" t="n">
-        <v>1.500873489554126</v>
+        <v>1.524488075734668</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5045904344625836</v>
+        <v>0.5155196451960117</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2644984173421907</v>
+        <v>0.2639655907235182</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6796589270031468</v>
+        <v>0.6755036600050598</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8475771882474625</v>
+        <v>0.8377890448499026</v>
       </c>
       <c r="G23" t="n">
-        <v>1.286726426833986</v>
+        <v>1.320914502191009</v>
       </c>
       <c r="H23" t="n">
-        <v>4.97360171198957</v>
+        <v>5.380238347299958</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3203410729968531</v>
+        <v>0.3244963399949401</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.03359944977881568</v>
+        <v>-0.02166305062796869</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3519480908943523</v>
+        <v>0.3485485542813919</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4678833371747194</v>
+        <v>0.4679547617847294</v>
       </c>
       <c r="G24" t="n">
-        <v>1.107561416041237</v>
+        <v>1.098941694053995</v>
       </c>
       <c r="H24" t="n">
-        <v>1.149987662812035</v>
+        <v>1.16272289206086</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6480519091056479</v>
+        <v>0.6514514457186082</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4514800761610175</v>
+        <v>0.4513963419936938</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5090055278116384</v>
+        <v>0.5028441896968134</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7518935128350032</v>
+        <v>0.7488816508382374</v>
       </c>
       <c r="G25" t="n">
-        <v>1.343451258192649</v>
+        <v>1.337546416214785</v>
       </c>
       <c r="H25" t="n">
-        <v>2.54148762145191</v>
+        <v>2.689149771698496</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4909944721883614</v>
+        <v>0.4971558103031863</v>
       </c>
       <c r="J25" t="n">
-        <v>0.227459681241464</v>
+        <v>0.231232960696414</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.535929662846991</v>
+        <v>0.534422620374529</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6149607300687141</v>
+        <v>0.6066865277157691</v>
       </c>
       <c r="G26" t="n">
-        <v>1.622741152722153</v>
+        <v>1.60484451421613</v>
       </c>
       <c r="H26" t="n">
-        <v>1.518940372678174</v>
+        <v>1.581413889638614</v>
       </c>
       <c r="I26" t="n">
-        <v>0.464070337153009</v>
+        <v>0.465577379625471</v>
       </c>
       <c r="J26" t="n">
-        <v>0.295184184692901</v>
+        <v>0.3046673734434333</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7067466048861447</v>
+        <v>0.7089462950974715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9514492239700736</v>
+        <v>0.9716550929076836</v>
       </c>
       <c r="G27" t="n">
-        <v>1.628842243147485</v>
+        <v>1.660497297890819</v>
       </c>
       <c r="H27" t="n">
-        <v>1.55445048570438</v>
+        <v>1.572622471885266</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2932533951138556</v>
+        <v>0.2910537049025287</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.06359276236733002</v>
+        <v>-0.08618021676632681</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3880509136228909</v>
+        <v>0.3799762458679487</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5971816622611001</v>
+        <v>0.5951234325235538</v>
       </c>
       <c r="G28" t="n">
-        <v>1.554574914802023</v>
+        <v>1.518482737004874</v>
       </c>
       <c r="H28" t="n">
-        <v>1.251728933501978</v>
+        <v>1.189524681178883</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6119490863771089</v>
+        <v>0.6200237541320511</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4590085929927161</v>
+        <v>0.4608731589565191</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5435757271186756</v>
+        <v>0.5411150537799831</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7211972054332959</v>
+        <v>0.7244883510490022</v>
       </c>
       <c r="G29" t="n">
-        <v>1.602052770223887</v>
+        <v>1.594608183037275</v>
       </c>
       <c r="H29" t="n">
-        <v>1.441706597294844</v>
+        <v>1.447853680900921</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4564242728813243</v>
+        <v>0.4588849462200169</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2302000051060954</v>
+        <v>0.2264534385445418</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4788154633713209</v>
+        <v>0.4714030679746586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9358575991780945</v>
+        <v>0.9420374778123979</v>
       </c>
       <c r="G30" t="n">
-        <v>1.296701818231561</v>
+        <v>1.276365054662906</v>
       </c>
       <c r="H30" t="n">
-        <v>2.072150530399186</v>
+        <v>2.133046206347413</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5211845366286787</v>
+        <v>0.5285969320253411</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1683387191058064</v>
+        <v>0.1628468945106019</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.7083725160622527</v>
+        <v>0.7070473185128568</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9155159477801303</v>
+        <v>0.927720460830991</v>
       </c>
       <c r="G31" t="n">
-        <v>2.075740430538085</v>
+        <v>2.004034991644058</v>
       </c>
       <c r="H31" t="n">
-        <v>3.339040278731127</v>
+        <v>3.712919216613664</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2916274839377471</v>
+        <v>0.2929526814871428</v>
       </c>
       <c r="J31" t="n">
-        <v>0.006538324560726227</v>
+        <v>-0.006705263399513717</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3839658871807888</v>
+        <v>0.3901259342618678</v>
       </c>
       <c r="F32" t="n">
-        <v>0.383142652246836</v>
+        <v>0.3835448795616714</v>
       </c>
       <c r="G32" t="n">
-        <v>1.177102375327495</v>
+        <v>1.191498747203902</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9293897572501421</v>
+        <v>0.9263570914486787</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6160341128192111</v>
+        <v>0.6098740657381321</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4782520284117463</v>
+        <v>0.4777042917282889</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5237179555381209</v>
+        <v>0.5228587735831277</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7448387330683536</v>
+        <v>0.7511009394016869</v>
       </c>
       <c r="G33" t="n">
-        <v>1.516514874699046</v>
+        <v>1.490632931170288</v>
       </c>
       <c r="H33" t="n">
-        <v>2.113526855460152</v>
+        <v>2.257440838136585</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4762820444618791</v>
+        <v>0.4771412264168722</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2177096906927597</v>
+        <v>0.2112819742797925</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5159735516428384</v>
+        <v>0.5166026475595435</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7832160593168959</v>
+        <v>0.7852359522456316</v>
       </c>
       <c r="G34" t="n">
-        <v>1.07402229279179</v>
+        <v>1.094422681421133</v>
       </c>
       <c r="H34" t="n">
-        <v>3.659823912713687</v>
+        <v>3.812225846108682</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4840264483571615</v>
+        <v>0.4833973524404563</v>
       </c>
       <c r="J34" t="n">
-        <v>0.307489336345049</v>
+        <v>0.305703370166303</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6967274631951647</v>
+        <v>0.69104563722386</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9513500684488014</v>
+        <v>0.9545164210861806</v>
       </c>
       <c r="G35" t="n">
-        <v>3.126336047463027</v>
+        <v>3.206877214829291</v>
       </c>
       <c r="H35" t="n">
-        <v>1.168266351404772</v>
+        <v>1.190528140735622</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3032725368048349</v>
+        <v>0.3089543627761395</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0455794279824856</v>
+        <v>0.04240285587133397</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.367939790104397</v>
+        <v>0.3623630716508182</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4868981185528409</v>
+        <v>0.4791553463503845</v>
       </c>
       <c r="G36" t="n">
-        <v>1.068087305168283</v>
+        <v>1.076834226883027</v>
       </c>
       <c r="H36" t="n">
-        <v>1.143402411197776</v>
+        <v>1.099094275781865</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6320602098956032</v>
+        <v>0.6376369283491821</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4233610887908908</v>
+        <v>0.4325309408860988</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5268802683141333</v>
+        <v>0.5233371188114073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7404880821061793</v>
+        <v>0.7396359065607322</v>
       </c>
       <c r="G37" t="n">
-        <v>1.756148548474366</v>
+        <v>1.792711374377816</v>
       </c>
       <c r="H37" t="n">
-        <v>1.990497558438745</v>
+        <v>2.03394942087539</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4731197316858664</v>
+        <v>0.4766628811885923</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2588099510394751</v>
+        <v>0.2602123889745785</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3942182699963869</v>
+        <v>0.3954956282303216</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9744589188909936</v>
+        <v>0.9723407504470184</v>
       </c>
       <c r="G38" t="n">
-        <v>36.27582567709258</v>
+        <v>34.24122687540319</v>
       </c>
       <c r="H38" t="n">
-        <v>1.534576269650018</v>
+        <v>1.550997036561429</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6057817300036128</v>
+        <v>0.6045043717696781</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1644138696305443</v>
+        <v>0.1662301721336669</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6163571512372321</v>
+        <v>0.6209852052855332</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9262124367970741</v>
+        <v>0.9348916919696625</v>
       </c>
       <c r="G39" t="n">
-        <v>1.326624564394374</v>
+        <v>1.343385911828601</v>
       </c>
       <c r="H39" t="n">
-        <v>3.004762478688865</v>
+        <v>3.020836475439841</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3836428487627678</v>
+        <v>0.3790147947144666</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.209758553037668</v>
+        <v>-0.2210948326662858</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3206562403674119</v>
+        <v>0.3218955843234664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4841860261910264</v>
+        <v>0.4865961808842025</v>
       </c>
       <c r="G40" t="n">
-        <v>1.157837627256606</v>
+        <v>1.169831450774335</v>
       </c>
       <c r="H40" t="n">
-        <v>1.172377358226752</v>
+        <v>1.188812259921325</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6793437596325885</v>
+        <v>0.6781044156765341</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4905773898466843</v>
+        <v>0.4880416138675017</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4437438872003437</v>
+        <v>0.4461254726131069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7949524606263648</v>
+        <v>0.7979428744336277</v>
       </c>
       <c r="G41" t="n">
-        <v>12.92009595624784</v>
+        <v>12.25148141266871</v>
       </c>
       <c r="H41" t="n">
-        <v>1.903905368855212</v>
+        <v>1.920215257307532</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5562561127996564</v>
+        <v>0.5538745273868931</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1484109021465198</v>
+        <v>0.1443923177782941</v>
       </c>
     </row>
     <row r="42">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5544822138258216</v>
+        <v>0.5543537164449962</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9225299430125627</v>
+        <v>0.9377518322938352</v>
       </c>
       <c r="G62" t="n">
-        <v>1.78950162327412</v>
+        <v>1.717546244759399</v>
       </c>
       <c r="H62" t="n">
-        <v>1.448680859290067</v>
+        <v>1.421967771094403</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4455177861741781</v>
+        <v>0.4456462835550036</v>
       </c>
       <c r="J62" t="n">
-        <v>0.278336747044774</v>
+        <v>0.2664291897692073</v>
       </c>
     </row>
     <row r="63">
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.7645515918440331</v>
+        <v>0.7629579968175628</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8726271106011552</v>
+        <v>0.8804903877940771</v>
       </c>
       <c r="G63" t="n">
-        <v>1.3110743476069</v>
+        <v>1.284596477198979</v>
       </c>
       <c r="H63" t="n">
-        <v>4.166813137964878</v>
+        <v>4.420044501696808</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2354484081559668</v>
+        <v>0.2370420031824371</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.06414721147036717</v>
+        <v>-0.07373628382006969</v>
       </c>
     </row>
     <row r="64">
@@ -2735,22 +2735,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.3786727098697349</v>
+        <v>0.3766364236500377</v>
       </c>
       <c r="F64" t="n">
-        <v>0.489140935738419</v>
+        <v>0.5069861304990481</v>
       </c>
       <c r="G64" t="n">
-        <v>1.188949763858112</v>
+        <v>1.162529075279674</v>
       </c>
       <c r="H64" t="n">
-        <v>1.28351365919078</v>
+        <v>1.293702814207496</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6213272901302652</v>
+        <v>0.6233635763499625</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4265588716240711</v>
+        <v>0.4056381760290989</v>
       </c>
     </row>
     <row r="65">
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5659021718465301</v>
+        <v>0.5646493789708654</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7614326631173788</v>
+        <v>0.7750761168623201</v>
       </c>
       <c r="G65" t="n">
-        <v>1.42984191157971</v>
+        <v>1.388223932412684</v>
       </c>
       <c r="H65" t="n">
-        <v>2.299669218815242</v>
+        <v>2.378571695666236</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4340978281534696</v>
+        <v>0.4353506210291343</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2135828023994927</v>
+        <v>0.1994436939927452</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6016068762918767</v>
+        <v>0.6027530530495258</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6439900588773899</v>
+        <v>0.6384897102775284</v>
       </c>
       <c r="G66" t="n">
-        <v>1.592844185566296</v>
+        <v>1.561944403949147</v>
       </c>
       <c r="H66" t="n">
-        <v>1.584395708527272</v>
+        <v>1.515183268553357</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3983931237081233</v>
+        <v>0.3972469469504742</v>
       </c>
       <c r="J66" t="n">
-        <v>0.261913230871478</v>
+        <v>0.2682172637850129</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.7651576049509808</v>
+        <v>0.7594409110610515</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9641183703587662</v>
+        <v>0.9661837936009345</v>
       </c>
       <c r="G67" t="n">
-        <v>1.574164573741641</v>
+        <v>1.641170764797014</v>
       </c>
       <c r="H67" t="n">
-        <v>1.556923487745123</v>
+        <v>1.527955563374107</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2348423950490195</v>
+        <v>0.2405590889389488</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.07775517068604176</v>
+        <v>-0.0800640371565291</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.4427394966929424</v>
+        <v>0.44808457280148</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6458865602227118</v>
+        <v>0.620672408060866</v>
       </c>
       <c r="G68" t="n">
-        <v>1.511497498218068</v>
+        <v>1.605932320629047</v>
       </c>
       <c r="H68" t="n">
-        <v>1.17073281185555</v>
+        <v>1.262318025637372</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5572605033070575</v>
+        <v>0.5519154271985198</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4148864557244115</v>
+        <v>0.4377281478200553</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.6031679926452671</v>
+        <v>0.6034261789706856</v>
       </c>
       <c r="F69" t="n">
-        <v>0.751331663152956</v>
+        <v>0.7417819706464429</v>
       </c>
       <c r="G69" t="n">
-        <v>1.559502085842001</v>
+        <v>1.603015829791736</v>
       </c>
       <c r="H69" t="n">
-        <v>1.437350669375981</v>
+        <v>1.435152285854945</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3968320073547327</v>
+        <v>0.3965738210293143</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1996815053032825</v>
+        <v>0.2086271248161795</v>
       </c>
     </row>
     <row r="70">
@@ -2951,22 +2951,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.4225588079750081</v>
+        <v>0.4238921055367122</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9515630824830529</v>
+        <v>0.9512829515905933</v>
       </c>
       <c r="G70" t="n">
-        <v>1.149280756339275</v>
+        <v>1.143016121097677</v>
       </c>
       <c r="H70" t="n">
-        <v>2.252430969883214</v>
+        <v>2.322585609171291</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5774411920249916</v>
+        <v>0.5761078944632876</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1543818496270147</v>
+        <v>0.154630791364567</v>
       </c>
     </row>
     <row r="71">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.6718048902548214</v>
+        <v>0.6739069760097969</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9867373466442934</v>
+        <v>0.9871549048639602</v>
       </c>
       <c r="G71" t="n">
-        <v>1.804671798188086</v>
+        <v>1.748751971660207</v>
       </c>
       <c r="H71" t="n">
-        <v>4.371952172679727</v>
+        <v>3.863259713151284</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3281951097451783</v>
+        <v>0.3260930239902029</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.07074676306039396</v>
+        <v>-0.07119987159390373</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.3629517578589555</v>
+        <v>0.3816209145495224</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3914870798634553</v>
+        <v>0.395538306789617</v>
       </c>
       <c r="G72" t="n">
-        <v>1.109466260066773</v>
+        <v>1.102363870355747</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9211996499607243</v>
+        <v>0.9248605777360921</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6370482421410444</v>
+        <v>0.6183790854504774</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4668889286432786</v>
+        <v>0.4613721337399358</v>
       </c>
     </row>
     <row r="73">
@@ -3059,22 +3059,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.4857718186962617</v>
+        <v>0.4931399986986769</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7765958363302669</v>
+        <v>0.7779920544147235</v>
       </c>
       <c r="G73" t="n">
-        <v>1.354472938198045</v>
+        <v>1.331377321037877</v>
       </c>
       <c r="H73" t="n">
-        <v>2.515194264174555</v>
+        <v>2.370235300019556</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5142281813037383</v>
+        <v>0.506860001301323</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1835080050699668</v>
+        <v>0.1816010178368665</v>
       </c>
     </row>
     <row r="74">
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.661510220334829</v>
+        <v>0.6520423934276872</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8158104899581692</v>
+        <v>0.8038473488537681</v>
       </c>
       <c r="G74" t="n">
-        <v>1.406977737553881</v>
+        <v>1.25605961556432</v>
       </c>
       <c r="H74" t="n">
-        <v>3.658223618840633</v>
+        <v>3.336185891554677</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3384897796651709</v>
+        <v>0.3479576065723126</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2786697143182353</v>
+        <v>0.289247386580002</v>
       </c>
     </row>
     <row r="75">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.8202979138731223</v>
+        <v>0.8247982251818994</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9192413870388352</v>
+        <v>0.9342432658086119</v>
       </c>
       <c r="G75" t="n">
-        <v>3.091654059057654</v>
+        <v>2.72586286996872</v>
       </c>
       <c r="H75" t="n">
-        <v>1.123514940454066</v>
+        <v>1.138263597664393</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1797020861268771</v>
+        <v>0.1752017748181001</v>
       </c>
       <c r="J75" t="n">
-        <v>0.07779174087798546</v>
+        <v>0.06274144320981623</v>
       </c>
     </row>
     <row r="76">
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.459482102046652</v>
+        <v>0.4617464728341086</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5072346129423722</v>
+        <v>0.5124088325308124</v>
       </c>
       <c r="G76" t="n">
-        <v>1.248976457004309</v>
+        <v>1.274661498588591</v>
       </c>
       <c r="H76" t="n">
-        <v>1.1862529146884</v>
+        <v>1.168341847042498</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5405178979533485</v>
+        <v>0.5382535271658918</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3992763500421688</v>
+        <v>0.3931484636607158</v>
       </c>
     </row>
     <row r="77">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.6470967454182012</v>
+        <v>0.6461956971478985</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7474288299797922</v>
+        <v>0.7501664823977308</v>
       </c>
       <c r="G77" t="n">
-        <v>1.915869417871948</v>
+        <v>1.752194661373877</v>
       </c>
       <c r="H77" t="n">
-        <v>1.9893304913277</v>
+        <v>1.880930445420523</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3529032545817983</v>
+        <v>0.3538043028521011</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2519126017461297</v>
+        <v>0.2483790978168446</v>
       </c>
     </row>
     <row r="78">
@@ -3239,22 +3239,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.5287293386641828</v>
+        <v>0.5268650458078495</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9695864857927968</v>
+        <v>0.960313467434603</v>
       </c>
       <c r="G78" t="n">
-        <v>33.5469294393059</v>
+        <v>33.75704120554182</v>
       </c>
       <c r="H78" t="n">
-        <v>1.529812929981196</v>
+        <v>1.442886027294534</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4712706613358167</v>
+        <v>0.47313495419215</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1685919190475886</v>
+        <v>0.176543414361097</v>
       </c>
     </row>
     <row r="79">
@@ -3275,22 +3275,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7355292417114377</v>
+        <v>0.7365807725370055</v>
       </c>
       <c r="F79" t="n">
-        <v>0.873259290474967</v>
+        <v>0.861375649059951</v>
       </c>
       <c r="G79" t="n">
-        <v>1.378553738321863</v>
+        <v>1.320000613526927</v>
       </c>
       <c r="H79" t="n">
-        <v>2.679132082948146</v>
+        <v>2.601378265378583</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2644707582885621</v>
+        <v>0.2634192274629943</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1405945911554984</v>
+        <v>-0.1250729502533714</v>
       </c>
     </row>
     <row r="80">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.4056752658087898</v>
+        <v>0.4085179458106546</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5105997824920754</v>
+        <v>0.488738949048258</v>
       </c>
       <c r="G80" t="n">
-        <v>1.182724011439462</v>
+        <v>1.197500747670409</v>
       </c>
       <c r="H80" t="n">
-        <v>1.070423819460116</v>
+        <v>1.031218853882742</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5943247341912108</v>
+        <v>0.591482054189346</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4627869044733512</v>
+        <v>0.4857871610497</v>
       </c>
     </row>
     <row r="81">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.5566446153948034</v>
+        <v>0.5573212547185032</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7844818529199463</v>
+        <v>0.7701426885142707</v>
       </c>
       <c r="G81" t="n">
-        <v>12.03606906302241</v>
+        <v>12.09151418891307</v>
       </c>
       <c r="H81" t="n">
-        <v>1.759789610796486</v>
+        <v>1.69182771551862</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4433553846051967</v>
+        <v>0.4426787452814969</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1635947441218136</v>
+        <v>0.179085875052475</v>
       </c>
     </row>
     <row r="82">

--- a/src/P07_af_all/T05_ml_auto_optuna/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T05_ml_auto_optuna/S03_calculate_performance.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6523137545005282</v>
+        <v>0.7053138970562265</v>
       </c>
       <c r="F2" t="n">
-        <v>1.028374321913231</v>
+        <v>1.025089285236419</v>
       </c>
       <c r="G2" t="n">
-        <v>1.628995921844158</v>
+        <v>1.612486837790567</v>
       </c>
       <c r="H2" t="n">
-        <v>1.743609305224334</v>
+        <v>1.917811126290867</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3476862454994715</v>
+        <v>0.2946861029437733</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1955383518674353</v>
+        <v>0.1981081223905728</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8536684721030727</v>
+        <v>0.8705695194669125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7949280923805851</v>
+        <v>0.8005284058050665</v>
       </c>
       <c r="G3" t="n">
-        <v>1.239593464983096</v>
+        <v>1.218201517500061</v>
       </c>
       <c r="H3" t="n">
-        <v>3.168141660714054</v>
+        <v>3.727977348074913</v>
       </c>
       <c r="I3" t="n">
-        <v>0.146331527896927</v>
+        <v>0.1294304805330873</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03060482243841689</v>
+        <v>0.02377537851944878</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5900056857289574</v>
+        <v>0.6183042927337148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5907822501503027</v>
+        <v>0.5816331671611413</v>
       </c>
       <c r="G4" t="n">
-        <v>1.415670103326625</v>
+        <v>1.380986530387249</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28224721160287</v>
+        <v>1.361217871271911</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4099943142710428</v>
+        <v>0.3816957072662854</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3074003515178481</v>
+        <v>0.3181262182151213</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6986626374441863</v>
+        <v>0.7313959030856182</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8046948881480395</v>
+        <v>0.802416952734209</v>
       </c>
       <c r="G5" t="n">
-        <v>1.428086496717959</v>
+        <v>1.403891628559292</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06466605918042</v>
+        <v>2.335668781879231</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3013373625558136</v>
+        <v>0.2686040969143816</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1778478419412333</v>
+        <v>0.1800032397083807</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7162384428723718</v>
+        <v>0.7068522530231819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7199427555133573</v>
+        <v>0.7078081236037407</v>
       </c>
       <c r="G6" t="n">
-        <v>1.600032903004152</v>
+        <v>1.667139519823897</v>
       </c>
       <c r="H6" t="n">
-        <v>1.656447987809693</v>
+        <v>2.004815292754512</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2837615571276282</v>
+        <v>0.2931477469768181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1748626938424379</v>
+        <v>0.1887703794305442</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8576745523083948</v>
+        <v>0.864506995211675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8828363208789095</v>
+        <v>0.8788864946201147</v>
       </c>
       <c r="G7" t="n">
-        <v>1.39983628104672</v>
+        <v>1.521859650228288</v>
       </c>
       <c r="H7" t="n">
-        <v>1.287516000315645</v>
+        <v>1.19248721409642</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1423254476916055</v>
+        <v>0.1354930047883255</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01310727090219999</v>
+        <v>0.01752264748313104</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6318998574125894</v>
+        <v>0.6256801888956317</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8607119789936297</v>
+        <v>0.7970361475494665</v>
       </c>
       <c r="G8" t="n">
-        <v>1.656499238098369</v>
+        <v>1.894075578168381</v>
       </c>
       <c r="H8" t="n">
-        <v>1.462580752612642</v>
+        <v>1.505905387171918</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3681001425874104</v>
+        <v>0.374319811104368</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2202744759764558</v>
+        <v>0.2779588956803466</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.735270950864452</v>
+        <v>0.7323464790434963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.821163685128632</v>
+        <v>0.7945769219244404</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55212280738308</v>
+        <v>1.694358249406855</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46884824691266</v>
+        <v>1.567735964674283</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2647290491355478</v>
+        <v>0.2676535209565036</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1360814802403643</v>
+        <v>0.1614173075313405</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6565821181395869</v>
+        <v>0.6728636444255394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9082421552244734</v>
+        <v>0.9157503253995605</v>
       </c>
       <c r="G10" t="n">
-        <v>1.216288914589793</v>
+        <v>1.247964145323454</v>
       </c>
       <c r="H10" t="n">
-        <v>1.746372516671626</v>
+        <v>1.760459325362389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3434178818604128</v>
+        <v>0.3271363555744602</v>
       </c>
       <c r="J10" t="n">
-        <v>0.192879520517368</v>
+        <v>0.1862072934280453</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8803970071214517</v>
+        <v>0.8932048998234846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8618750075159339</v>
+        <v>0.8187419521724083</v>
       </c>
       <c r="G11" t="n">
-        <v>1.529361470532382</v>
+        <v>1.544131919625846</v>
       </c>
       <c r="H11" t="n">
-        <v>2.419837376410827</v>
+        <v>2.192631564986068</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1196029928785478</v>
+        <v>0.1067951001765151</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06474617830289253</v>
+        <v>0.1115515207246118</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6210908060022056</v>
+        <v>0.6386774581464096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.48810420995165</v>
+        <v>0.4561216255617974</v>
       </c>
       <c r="G12" t="n">
-        <v>1.467361879392424</v>
+        <v>1.47903095094546</v>
       </c>
       <c r="H12" t="n">
-        <v>1.129277842173557</v>
+        <v>1.166983126416862</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3789091939977942</v>
+        <v>0.36132254185359</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3353196780036553</v>
+        <v>0.3788722515260763</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7193566437544147</v>
+        <v>0.7349153341318111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7527404575640192</v>
+        <v>0.7302046343779219</v>
       </c>
       <c r="G13" t="n">
-        <v>1.404337421504866</v>
+        <v>1.423709005298254</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76516257841867</v>
+        <v>1.706691338921773</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2806433562455853</v>
+        <v>0.2650846658681889</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1976484589413053</v>
+        <v>0.225543688559578</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7072886561473802</v>
+        <v>0.7172701204361041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8197094270322395</v>
+        <v>0.8073604025299141</v>
       </c>
       <c r="G14" t="n">
-        <v>1.305261453643694</v>
+        <v>1.340766530852787</v>
       </c>
       <c r="H14" t="n">
-        <v>1.942766827106597</v>
+        <v>1.813595911946556</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2927113438526197</v>
+        <v>0.2827298795638957</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2752223188408389</v>
+        <v>0.2861411847806605</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8824309875673454</v>
+        <v>0.8871249012928428</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9395625568114719</v>
+        <v>0.9269355089297945</v>
       </c>
       <c r="G15" t="n">
-        <v>1.929645326031145</v>
+        <v>2.198381245085866</v>
       </c>
       <c r="H15" t="n">
-        <v>1.055551985144876</v>
+        <v>1.08408313615432</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1175690124326541</v>
+        <v>0.1128750987071566</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05740498407658123</v>
+        <v>0.07007278603698208</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5886003926878324</v>
+        <v>0.5795761934469729</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6327716054954146</v>
+        <v>0.6396637782012575</v>
       </c>
       <c r="G16" t="n">
-        <v>1.417363516809417</v>
+        <v>1.421662704274259</v>
       </c>
       <c r="H16" t="n">
-        <v>1.220280505781157</v>
+        <v>1.276264169197014</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4113996073121681</v>
+        <v>0.4204238065530277</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2506014795838302</v>
+        <v>0.242439002027386</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7261066788008527</v>
+        <v>0.7279904050586401</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7973478631130422</v>
+        <v>0.7913198965536553</v>
       </c>
       <c r="G17" t="n">
-        <v>1.550756765494752</v>
+        <v>1.653603493404304</v>
       </c>
       <c r="H17" t="n">
-        <v>1.406199772677543</v>
+        <v>1.391314405765963</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2738933211991468</v>
+        <v>0.2720095949413595</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1944095941670832</v>
+        <v>0.1995509909483428</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.594682508046053</v>
+        <v>0.6495357391143576</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9961871236494823</v>
+        <v>0.9672648467327155</v>
       </c>
       <c r="G18" t="n">
-        <v>28.60439687936323</v>
+        <v>16.67256905415752</v>
       </c>
       <c r="H18" t="n">
-        <v>1.39221628036203</v>
+        <v>1.253673141576369</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4053174919539465</v>
+        <v>0.3504642608856419</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1457822103763159</v>
+        <v>0.1705826950164061</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7995711843981608</v>
+        <v>0.817746518826632</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8234646711839984</v>
+        <v>0.8416277482866029</v>
       </c>
       <c r="G19" t="n">
-        <v>1.415061879403896</v>
+        <v>1.485094428487058</v>
       </c>
       <c r="H19" t="n">
-        <v>2.267565731822388</v>
+        <v>2.235748657441715</v>
       </c>
       <c r="I19" t="n">
-        <v>0.200428815601839</v>
+        <v>0.1822534811733679</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.07555609222234083</v>
+        <v>-0.09927952434374809</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.5645679638081302</v>
+        <v>0.5824997341957171</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6863420213059656</v>
+        <v>0.6848515104613135</v>
       </c>
       <c r="G20" t="n">
-        <v>1.438474948523545</v>
+        <v>1.413527188210471</v>
       </c>
       <c r="H20" t="n">
-        <v>1.318530482283848</v>
+        <v>1.292821582823439</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4354320361918707</v>
+        <v>0.4175002658042838</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2778846867967136</v>
+        <v>0.2794528855547771</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6529405520841146</v>
+        <v>0.6832606640455691</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8353312720464819</v>
+        <v>0.8312480351602106</v>
       </c>
       <c r="G21" t="n">
-        <v>10.48597790243022</v>
+        <v>6.523730223618345</v>
       </c>
       <c r="H21" t="n">
-        <v>1.659437498156089</v>
+        <v>1.594081127280508</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3470594479158855</v>
+        <v>0.3167393359544311</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1160369349835626</v>
+        <v>0.1169186854091449</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4844803548039881</v>
+        <v>0.5077902028750106</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9409011458800797</v>
+        <v>0.9168164264854322</v>
       </c>
       <c r="G22" t="n">
-        <v>1.592783052399349</v>
+        <v>1.715912695597069</v>
       </c>
       <c r="H22" t="n">
-        <v>1.524488075734668</v>
+        <v>1.694331898209064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5155196451960117</v>
+        <v>0.4922097971249891</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2639655907235182</v>
+        <v>0.282806233324339</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6755036600050598</v>
+        <v>0.7126166016749176</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8377890448499026</v>
+        <v>0.8716401706899302</v>
       </c>
       <c r="G23" t="n">
-        <v>1.320914502191009</v>
+        <v>1.320935162253089</v>
       </c>
       <c r="H23" t="n">
-        <v>5.380238347299958</v>
+        <v>6.813391089868887</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3244963399949401</v>
+        <v>0.2873833983250823</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.02166305062796869</v>
+        <v>-0.0629436626215405</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3485485542813919</v>
+        <v>0.4028513695925802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4679547617847294</v>
+        <v>0.4924562200221338</v>
       </c>
       <c r="G24" t="n">
-        <v>1.098941694053995</v>
+        <v>1.181943290128136</v>
       </c>
       <c r="H24" t="n">
-        <v>1.16272289206086</v>
+        <v>1.247163119954017</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6514514457186082</v>
+        <v>0.5971486304074199</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4513963419936938</v>
+        <v>0.4226722201057916</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5028441896968134</v>
+        <v>0.5410860580475026</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7488816508382374</v>
+        <v>0.7603042723991652</v>
       </c>
       <c r="G25" t="n">
-        <v>1.337546416214785</v>
+        <v>1.406263715992765</v>
       </c>
       <c r="H25" t="n">
-        <v>2.689149771698496</v>
+        <v>3.251628702677323</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4971558103031863</v>
+        <v>0.4589139419524972</v>
       </c>
       <c r="J25" t="n">
-        <v>0.231232960696414</v>
+        <v>0.2141782636028632</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.534422620374529</v>
+        <v>0.544944151574737</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6066865277157691</v>
+        <v>0.5971396525768099</v>
       </c>
       <c r="G26" t="n">
-        <v>1.60484451421613</v>
+        <v>1.575817251839677</v>
       </c>
       <c r="H26" t="n">
-        <v>1.581413889638614</v>
+        <v>1.710485974342714</v>
       </c>
       <c r="I26" t="n">
-        <v>0.465577379625471</v>
+        <v>0.455055848425263</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3046673734434333</v>
+        <v>0.3156091917672615</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7089462950974715</v>
+        <v>0.7056623914011536</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9716550929076836</v>
+        <v>0.9508905215499224</v>
       </c>
       <c r="G27" t="n">
-        <v>1.660497297890819</v>
+        <v>1.577917554021151</v>
       </c>
       <c r="H27" t="n">
-        <v>1.572622471885266</v>
+        <v>1.536419802127981</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2910537049025287</v>
+        <v>0.2943376085988466</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.08618021676632681</v>
+        <v>-0.06296820791353541</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3799762458679487</v>
+        <v>0.4070122105867854</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5951234325235538</v>
+        <v>0.6120273854073635</v>
       </c>
       <c r="G28" t="n">
-        <v>1.518482737004874</v>
+        <v>1.601347120232195</v>
       </c>
       <c r="H28" t="n">
-        <v>1.189524681178883</v>
+        <v>1.206369632892001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6200237541320511</v>
+        <v>0.5929877894132145</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4608731589565191</v>
+        <v>0.4455597395524943</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5411150537799831</v>
+        <v>0.5525395845208918</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7244883510490022</v>
+        <v>0.7200191865113652</v>
       </c>
       <c r="G29" t="n">
-        <v>1.594608183037275</v>
+        <v>1.585027308697674</v>
       </c>
       <c r="H29" t="n">
-        <v>1.447853680900921</v>
+        <v>1.484425136454232</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4588849462200169</v>
+        <v>0.4474604154791081</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2264534385445418</v>
+        <v>0.2327335744687399</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4714030679746586</v>
+        <v>0.5670372364029107</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9420374778123979</v>
+        <v>0.8728200658420416</v>
       </c>
       <c r="G30" t="n">
-        <v>1.276365054662906</v>
+        <v>1.082480172065966</v>
       </c>
       <c r="H30" t="n">
-        <v>2.133046206347413</v>
+        <v>1.970607497476238</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5285969320253411</v>
+        <v>0.432962763597089</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1628468945106019</v>
+        <v>0.2243577926963982</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.7070473185128568</v>
+        <v>0.8016417379890077</v>
       </c>
       <c r="F31" t="n">
-        <v>0.927720460830991</v>
+        <v>0.9112577960853748</v>
       </c>
       <c r="G31" t="n">
-        <v>2.004034991644058</v>
+        <v>1.576775908040317</v>
       </c>
       <c r="H31" t="n">
-        <v>3.712919216613664</v>
+        <v>2.972682331405637</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2929526814871428</v>
+        <v>0.1983582620109919</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.006705263399513717</v>
+        <v>0.01115900924372248</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3901259342618678</v>
+        <v>0.5199092717292851</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3835448795616714</v>
+        <v>0.4531735742502654</v>
       </c>
       <c r="G32" t="n">
-        <v>1.191498747203902</v>
+        <v>1.149130334080098</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9263570914486787</v>
+        <v>1.100869844208971</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6098740657381321</v>
+        <v>0.4800907282707146</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4777042917282889</v>
+        <v>0.3828867870597996</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5228587735831277</v>
+        <v>0.6295294153737344</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7511009394016869</v>
+        <v>0.7457504787258938</v>
       </c>
       <c r="G33" t="n">
-        <v>1.490632931170288</v>
+        <v>1.269462138062127</v>
       </c>
       <c r="H33" t="n">
-        <v>2.257440838136585</v>
+        <v>2.014719891030282</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4771412264168722</v>
+        <v>0.3704705846262655</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2112819742797925</v>
+        <v>0.2061345296666402</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5166026475595435</v>
+        <v>0.5542458012685796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7852359522456316</v>
+        <v>0.787365815599158</v>
       </c>
       <c r="G34" t="n">
-        <v>1.094422681421133</v>
+        <v>1.078161547661426</v>
       </c>
       <c r="H34" t="n">
-        <v>3.812225846108682</v>
+        <v>3.649704621813968</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4833973524404563</v>
+        <v>0.4457541987314203</v>
       </c>
       <c r="J34" t="n">
-        <v>0.305703370166303</v>
+        <v>0.3038201693982655</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.69104563722386</v>
+        <v>0.7417981272508678</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9545164210861806</v>
+        <v>0.9129094347757818</v>
       </c>
       <c r="G35" t="n">
-        <v>3.206877214829291</v>
+        <v>2.687910784401559</v>
       </c>
       <c r="H35" t="n">
-        <v>1.190528140735622</v>
+        <v>1.106534846158266</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3089543627761395</v>
+        <v>0.2582018727491318</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04240285587133397</v>
+        <v>0.08414412965822171</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3623630716508182</v>
+        <v>0.4014718949986869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4791553463503845</v>
+        <v>0.4723210432299613</v>
       </c>
       <c r="G36" t="n">
-        <v>1.076834226883027</v>
+        <v>1.07191441408018</v>
       </c>
       <c r="H36" t="n">
-        <v>1.099094275781865</v>
+        <v>1.129116821144031</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6376369283491821</v>
+        <v>0.5985281050013134</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4325309408860988</v>
+        <v>0.4406248828424717</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5233371188114073</v>
+        <v>0.565838607839378</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7396359065607322</v>
+        <v>0.7241987645349669</v>
       </c>
       <c r="G37" t="n">
-        <v>1.792711374377816</v>
+        <v>1.612662248714389</v>
       </c>
       <c r="H37" t="n">
-        <v>2.03394942087539</v>
+        <v>1.961785429705422</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4766628811885923</v>
+        <v>0.4341613921606216</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2602123889745785</v>
+        <v>0.2761963939663196</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3954956282303216</v>
+        <v>0.4762428928327101</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9723407504470184</v>
+        <v>0.9057782494167916</v>
       </c>
       <c r="G38" t="n">
-        <v>34.24122687540319</v>
+        <v>31.78838697330711</v>
       </c>
       <c r="H38" t="n">
-        <v>1.550997036561429</v>
+        <v>1.485909099924949</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6045043717696781</v>
+        <v>0.5237571071672895</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1662301721336669</v>
+        <v>0.2233066702654284</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6209852052855332</v>
+        <v>0.6728571376238286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9348916919696625</v>
+        <v>0.9403279370607365</v>
       </c>
       <c r="G39" t="n">
-        <v>1.343385911828601</v>
+        <v>1.477063233574372</v>
       </c>
       <c r="H39" t="n">
-        <v>3.020836475439841</v>
+        <v>2.756873959961383</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3790147947144666</v>
+        <v>0.3271428623761713</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2210948326662858</v>
+        <v>-0.2281953030703308</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3218955843234664</v>
+        <v>0.3980607455334931</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4865961808842025</v>
+        <v>0.5637971143775171</v>
       </c>
       <c r="G40" t="n">
-        <v>1.169831450774335</v>
+        <v>1.258760044394028</v>
       </c>
       <c r="H40" t="n">
-        <v>1.188812259921325</v>
+        <v>1.207683386838137</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6781044156765341</v>
+        <v>0.6019392544665074</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4880416138675017</v>
+        <v>0.4068168388449347</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4461254726131069</v>
+        <v>0.5157202586633441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7979428744336277</v>
+        <v>0.8033011002850149</v>
       </c>
       <c r="G41" t="n">
-        <v>12.25148141266871</v>
+        <v>11.50807008375849</v>
       </c>
       <c r="H41" t="n">
-        <v>1.920215257307532</v>
+        <v>1.816822148908156</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5538745273868931</v>
+        <v>0.4842797413366559</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1443923177782941</v>
+        <v>0.1339760686800106</v>
       </c>
     </row>
     <row r="42">
@@ -1943,22 +1943,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.788907029532676e-13</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9782149606529488</v>
+        <v>0.9717016630987382</v>
       </c>
       <c r="G42" t="n">
-        <v>8.305657556499896e-07</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.476995951481033</v>
+        <v>1.402194872893755</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9999999999998211</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2347762845626549</v>
+        <v>0.23987141186561</v>
       </c>
     </row>
     <row r="43">
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.4247488666509e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8508768633549878</v>
+        <v>0.8299217597731904</v>
       </c>
       <c r="G43" t="n">
-        <v>3.882270709469121e-07</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.18374784011299</v>
+        <v>4.206891644548781</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9999999999997575</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.03762332208552421</v>
+        <v>-0.01206909076296037</v>
       </c>
     </row>
     <row r="44">
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.425510499733075e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6994201551757295</v>
+        <v>0.6386824290550697</v>
       </c>
       <c r="G44" t="n">
-        <v>4.870226351503544e-07</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.188313066823522</v>
+        <v>1.151584754932778</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9999999999996575</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1800394248594976</v>
+        <v>0.2512448948106882</v>
       </c>
     </row>
     <row r="45">
@@ -2051,22 +2051,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.546388798638884e-13</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8428373263945553</v>
+        <v>0.8134352839756662</v>
       </c>
       <c r="G45" t="n">
-        <v>5.68605153915752e-07</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.283018952805849</v>
+        <v>2.253557090791771</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9999999999997454</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1257307957788757</v>
+        <v>0.1596824053044455</v>
       </c>
     </row>
     <row r="46">
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.748686207549743e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6256825505072865</v>
+        <v>0.6070144852078107</v>
       </c>
       <c r="G46" t="n">
-        <v>5.854823096022816e-07</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.415881944811947</v>
+        <v>1.424080115703882</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9999999999997251</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2828957437494535</v>
+        <v>0.3042914963900912</v>
       </c>
     </row>
     <row r="47">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.229622502462552e-13</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9729376331382215</v>
+        <v>1.006404817060623</v>
       </c>
       <c r="G47" t="n">
-        <v>4.632232137149572e-07</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.543464773395819</v>
+        <v>1.594877081566427</v>
       </c>
       <c r="I47" t="n">
-        <v>0.999999999999677</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.08761392491625108</v>
+        <v>-0.1250257527888461</v>
       </c>
     </row>
     <row r="48">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.797538522116666e-13</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9038006172007108</v>
+        <v>0.8530616982003211</v>
       </c>
       <c r="G48" t="n">
-        <v>6.521753383538149e-07</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.296188480298769</v>
+        <v>1.203025867390016</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9999999999997202</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1812401511088499</v>
+        <v>0.2272049234967336</v>
       </c>
     </row>
     <row r="49">
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.925282410709654e-13</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8341402669487393</v>
+        <v>0.8221603334895849</v>
       </c>
       <c r="G49" t="n">
-        <v>5.669602872236844e-07</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.418511732835512</v>
+        <v>1.407327688220108</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9999999999997075</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1255073233140175</v>
+        <v>0.1354902223659927</v>
       </c>
     </row>
     <row r="50">
@@ -2234,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9242169453262998</v>
+        <v>0.9609105943099024</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2.217641398879628</v>
+        <v>2.171215755898769</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.178683328265717</v>
+        <v>0.1460750691233155</v>
       </c>
     </row>
     <row r="51">
@@ -2270,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9479145210923412</v>
+        <v>0.9221531847703112</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3.630801448525656</v>
+        <v>3.813694698382029</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.02861861727369508</v>
+        <v>-0.0006639973611810568</v>
       </c>
     </row>
     <row r="52">
@@ -2306,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6391627600486234</v>
+        <v>0.592380691471618</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.067434718231837</v>
+        <v>1.013171635855848</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1296143313345431</v>
+        <v>0.1933202362856585</v>
       </c>
     </row>
     <row r="53">
@@ -2342,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8370980754890883</v>
+        <v>0.8251481568506107</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.305292521879041</v>
+        <v>2.332694030045549</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.09322634744218823</v>
+        <v>0.1129104360159309</v>
       </c>
     </row>
     <row r="54">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2.445109631606131e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7827904879437788</v>
+        <v>0.8690448400412065</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.410095240230047e-07</v>
       </c>
       <c r="H54" t="n">
-        <v>2.191021335156413</v>
+        <v>1.792199364932887</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0.9999999999997555</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3078656216759281</v>
+        <v>0.2316005120633717</v>
       </c>
     </row>
     <row r="55">
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3.403198077540928e-13</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9740595611687415</v>
+        <v>0.9400604363413545</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1.010026464532198e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>1.205242879153371</v>
+        <v>1.064147456199235</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0.9999999999996597</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0227966398681867</v>
+        <v>0.05690549762940933</v>
       </c>
     </row>
     <row r="56">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2.158704217216212e-13</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6918122576918039</v>
+        <v>0.653921993652224</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3.177500121486875e-07</v>
       </c>
       <c r="H56" t="n">
-        <v>1.14942914842204</v>
+        <v>1.086008644731669</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0.9999999999997842</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1806789719742492</v>
+        <v>0.2255528373039174</v>
       </c>
     </row>
     <row r="57">
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2.669003975454424e-13</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8162207689347749</v>
+        <v>0.8210090900115948</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>5.562620002346297e-07</v>
       </c>
       <c r="H57" t="n">
-        <v>1.515231120910608</v>
+        <v>1.314118488621264</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0.9999999999997331</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1704470778394544</v>
+        <v>0.1713529489988995</v>
       </c>
     </row>
     <row r="58">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.190988925383401e-13</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9868868410068283</v>
+        <v>0.9838014160048483</v>
       </c>
       <c r="G58" t="n">
-        <v>5.045873722820417e-07</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1.402846004046677</v>
+        <v>1.444242437842647</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9999999999996809</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1537570844670181</v>
+        <v>0.1564027971676456</v>
       </c>
     </row>
     <row r="59">
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3.888731810472703e-13</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8293357622941988</v>
+        <v>0.86506595369224</v>
       </c>
       <c r="G59" t="n">
-        <v>6.069577707814098e-07</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2.044539722935254</v>
+        <v>2.398006629217946</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9999999999996111</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.0832245302653345</v>
+        <v>-0.1298929865807441</v>
       </c>
     </row>
     <row r="60">
@@ -2591,22 +2591,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.035993962615876e-13</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7886471304903597</v>
+        <v>0.7393060369780288</v>
       </c>
       <c r="G60" t="n">
-        <v>4.399107920824034e-07</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.23062752831774</v>
+        <v>1.202132498950645</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9999999999996964</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1702472645383265</v>
+        <v>0.2221600982122041</v>
       </c>
     </row>
     <row r="61">
@@ -2627,22 +2627,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3.371904899490661e-13</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8682899112637954</v>
+        <v>0.8627244688917056</v>
       </c>
       <c r="G61" t="n">
-        <v>5.171519783819516e-07</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.559337751766557</v>
+        <v>1.681460522003746</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9999999999996628</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0.08025993958000321</v>
+        <v>0.08288996959970156</v>
       </c>
     </row>
     <row r="62">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5543537164449962</v>
+        <v>0.5582282474417711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9377518322938352</v>
+        <v>0.9725445567983712</v>
       </c>
       <c r="G62" t="n">
-        <v>1.717546244759399</v>
+        <v>1.851559799121772</v>
       </c>
       <c r="H62" t="n">
-        <v>1.421967771094403</v>
+        <v>1.452255443204959</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4456462835550036</v>
+        <v>0.4417717525582286</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2664291897692073</v>
+        <v>0.2392120452902703</v>
       </c>
     </row>
     <row r="63">
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.7629579968175628</v>
+        <v>0.7461223234871682</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8804903877940771</v>
+        <v>0.8409205604554972</v>
       </c>
       <c r="G63" t="n">
-        <v>1.284596477198979</v>
+        <v>1.342575023237533</v>
       </c>
       <c r="H63" t="n">
-        <v>4.420044501696808</v>
+        <v>4.996278369166181</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2370420031824371</v>
+        <v>0.2538776765128317</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.07373628382006969</v>
+        <v>-0.02548185657484536</v>
       </c>
     </row>
     <row r="64">
@@ -2735,22 +2735,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.3766364236500377</v>
+        <v>0.4051498011479905</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5069861304990481</v>
+        <v>0.4718506689762283</v>
       </c>
       <c r="G64" t="n">
-        <v>1.162529075279674</v>
+        <v>1.270462523058347</v>
       </c>
       <c r="H64" t="n">
-        <v>1.293702814207496</v>
+        <v>1.296277489277135</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6233635763499625</v>
+        <v>0.5948501988520096</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4056381760290989</v>
+        <v>0.4468290010645025</v>
       </c>
     </row>
     <row r="65">
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5646493789708654</v>
+        <v>0.5698334573589768</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7750761168623201</v>
+        <v>0.7617719287433654</v>
       </c>
       <c r="G65" t="n">
-        <v>1.388223932412684</v>
+        <v>1.488199115139217</v>
       </c>
       <c r="H65" t="n">
-        <v>2.378571695666236</v>
+        <v>2.581603767216092</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4353506210291343</v>
+        <v>0.4301665426410229</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1994436939927452</v>
+        <v>0.2201863965933088</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6027530530495258</v>
+        <v>0.4781524263462843</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6384897102775284</v>
+        <v>0.6149449101990316</v>
       </c>
       <c r="G66" t="n">
-        <v>1.561944403949147</v>
+        <v>1.578542565586858</v>
       </c>
       <c r="H66" t="n">
-        <v>1.515183268553357</v>
+        <v>1.656542839337756</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3972469469504742</v>
+        <v>0.5218475736537157</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2682172637850129</v>
+        <v>0.2952023160853673</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.7594409110610515</v>
+        <v>0.6551321209707083</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9661837936009345</v>
+        <v>0.9935408773936064</v>
       </c>
       <c r="G67" t="n">
-        <v>1.641170764797014</v>
+        <v>1.639489267570788</v>
       </c>
       <c r="H67" t="n">
-        <v>1.527955563374107</v>
+        <v>1.618278984988764</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2405590889389488</v>
+        <v>0.3448678790292919</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.0800640371565291</v>
+        <v>-0.1106455916823201</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.44808457280148</v>
+        <v>0.3489514056156699</v>
       </c>
       <c r="F68" t="n">
-        <v>0.620672408060866</v>
+        <v>0.6097636325487901</v>
       </c>
       <c r="G68" t="n">
-        <v>1.605932320629047</v>
+        <v>1.535572744081177</v>
       </c>
       <c r="H68" t="n">
-        <v>1.262318025637372</v>
+        <v>1.358352162654806</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5519154271985198</v>
+        <v>0.6510485943843299</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4377281478200553</v>
+        <v>0.4476104904738126</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.6034261789706856</v>
+        <v>0.494078650977554</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7417819706464429</v>
+        <v>0.7394164733804761</v>
       </c>
       <c r="G69" t="n">
-        <v>1.603015829791736</v>
+        <v>1.584534859079608</v>
       </c>
       <c r="H69" t="n">
-        <v>1.435152285854945</v>
+        <v>1.544391328993775</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3965738210293143</v>
+        <v>0.5059213490224459</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2086271248161795</v>
+        <v>0.210722404958953</v>
       </c>
     </row>
     <row r="70">
@@ -2951,22 +2951,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.4238921055367122</v>
+        <v>0.5386190852965035</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9512829515905933</v>
+        <v>0.9134478542483979</v>
       </c>
       <c r="G70" t="n">
-        <v>1.143016121097677</v>
+        <v>1.20711699341596</v>
       </c>
       <c r="H70" t="n">
-        <v>2.322585609171291</v>
+        <v>2.121468849586329</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5761078944632876</v>
+        <v>0.4613809147034962</v>
       </c>
       <c r="J70" t="n">
-        <v>0.154630791364567</v>
+        <v>0.188253412526164</v>
       </c>
     </row>
     <row r="71">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.6739069760097969</v>
+        <v>0.7678065845152759</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9871549048639602</v>
+        <v>0.9060432244181625</v>
       </c>
       <c r="G71" t="n">
-        <v>1.748751971660207</v>
+        <v>1.516242557482375</v>
       </c>
       <c r="H71" t="n">
-        <v>3.863259713151284</v>
+        <v>2.759069034306656</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3260930239902029</v>
+        <v>0.2321934154847237</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.07119987159390373</v>
+        <v>0.01681754213740727</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.3816209145495224</v>
+        <v>0.4560116811064966</v>
       </c>
       <c r="F72" t="n">
-        <v>0.395538306789617</v>
+        <v>0.4119093185980853</v>
       </c>
       <c r="G72" t="n">
-        <v>1.102363870355747</v>
+        <v>1.191580911290895</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9248605777360921</v>
+        <v>1.04137390122943</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6183790854504774</v>
+        <v>0.5439883188935033</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4613721337399358</v>
+        <v>0.4390787603610491</v>
       </c>
     </row>
     <row r="73">
@@ -3059,22 +3059,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.4931399986986769</v>
+        <v>0.5874791169727587</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7779920544147235</v>
+        <v>0.7438001324215486</v>
       </c>
       <c r="G73" t="n">
-        <v>1.331377321037877</v>
+        <v>1.304980154063076</v>
       </c>
       <c r="H73" t="n">
-        <v>2.370235300019556</v>
+        <v>1.973970595040806</v>
       </c>
       <c r="I73" t="n">
-        <v>0.506860001301323</v>
+        <v>0.4125208830272413</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1816010178368665</v>
+        <v>0.2147165716748735</v>
       </c>
     </row>
     <row r="74">
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.6520423934276872</v>
+        <v>0.5925570344605366</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8038473488537681</v>
+        <v>0.7922420227806658</v>
       </c>
       <c r="G74" t="n">
-        <v>1.25605961556432</v>
+        <v>1.156022631989677</v>
       </c>
       <c r="H74" t="n">
-        <v>3.336185891554677</v>
+        <v>3.56092696053727</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3479576065723126</v>
+        <v>0.4074429655394632</v>
       </c>
       <c r="J74" t="n">
-        <v>0.289247386580002</v>
+        <v>0.2995086828918087</v>
       </c>
     </row>
     <row r="75">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.8247982251818994</v>
+        <v>0.7814492103169217</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9342432658086119</v>
+        <v>0.9175867857202199</v>
       </c>
       <c r="G75" t="n">
-        <v>2.72586286996872</v>
+        <v>2.89417925744415</v>
       </c>
       <c r="H75" t="n">
-        <v>1.138263597664393</v>
+        <v>1.131017380149145</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1752017748181001</v>
+        <v>0.2185507896830778</v>
       </c>
       <c r="J75" t="n">
-        <v>0.06274144320981623</v>
+        <v>0.07945168245926759</v>
       </c>
     </row>
     <row r="76">
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.4617464728341086</v>
+        <v>0.4179540571557495</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5124088325308124</v>
+        <v>0.4954002637790518</v>
       </c>
       <c r="G76" t="n">
-        <v>1.274661498588591</v>
+        <v>1.136148149906745</v>
       </c>
       <c r="H76" t="n">
-        <v>1.168341847042498</v>
+        <v>1.157283237591162</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5382535271658918</v>
+        <v>0.5820459428442508</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3931484636607158</v>
+        <v>0.4132919026934877</v>
       </c>
     </row>
     <row r="77">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.6461956971478985</v>
+        <v>0.5973201006444028</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7501664823977308</v>
+        <v>0.7350763574266458</v>
       </c>
       <c r="G77" t="n">
-        <v>1.752194661373877</v>
+        <v>1.728783346446858</v>
       </c>
       <c r="H77" t="n">
-        <v>1.880930445420523</v>
+        <v>1.949742526092525</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3538043028521011</v>
+        <v>0.4026798993555967</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2483790978168446</v>
+        <v>0.2640840893481879</v>
       </c>
     </row>
     <row r="78">
@@ -3239,22 +3239,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.5268650458078495</v>
+        <v>0.4839675000302983</v>
       </c>
       <c r="F78" t="n">
-        <v>0.960313467434603</v>
+        <v>0.9220054002154959</v>
       </c>
       <c r="G78" t="n">
-        <v>33.75704120554182</v>
+        <v>33.43897198999621</v>
       </c>
       <c r="H78" t="n">
-        <v>1.442886027294534</v>
+        <v>1.404404879887476</v>
       </c>
       <c r="I78" t="n">
-        <v>0.47313495419215</v>
+        <v>0.5160324999697012</v>
       </c>
       <c r="J78" t="n">
-        <v>0.176543414361097</v>
+        <v>0.2093920948226357</v>
       </c>
     </row>
     <row r="79">
@@ -3275,22 +3275,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.7365807725370055</v>
+        <v>0.727783819471931</v>
       </c>
       <c r="F79" t="n">
-        <v>0.861375649059951</v>
+        <v>0.9411498706591918</v>
       </c>
       <c r="G79" t="n">
-        <v>1.320000613526927</v>
+        <v>1.360800331265376</v>
       </c>
       <c r="H79" t="n">
-        <v>2.601378265378583</v>
+        <v>2.624921760584263</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2634192274629943</v>
+        <v>0.2722161805280688</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1250729502533714</v>
+        <v>-0.2292688593747556</v>
       </c>
     </row>
     <row r="80">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.4085179458106546</v>
+        <v>0.4248283918919443</v>
       </c>
       <c r="F80" t="n">
-        <v>0.488738949048258</v>
+        <v>0.5399828910740216</v>
       </c>
       <c r="G80" t="n">
-        <v>1.197500747670409</v>
+        <v>1.219000487431783</v>
       </c>
       <c r="H80" t="n">
-        <v>1.031218853882742</v>
+        <v>1.184351926089138</v>
       </c>
       <c r="I80" t="n">
-        <v>0.591482054189346</v>
+        <v>0.5751716081080563</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4857871610497</v>
+        <v>0.4318722992213445</v>
       </c>
     </row>
     <row r="81">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.5573212547185032</v>
+        <v>0.5455265704647244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7701426885142707</v>
+        <v>0.8010460539829033</v>
       </c>
       <c r="G81" t="n">
-        <v>12.09151418891307</v>
+        <v>12.00625760289779</v>
       </c>
       <c r="H81" t="n">
-        <v>1.69182771551862</v>
+        <v>1.737892855520292</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4426787452814969</v>
+        <v>0.4544734295352756</v>
       </c>
       <c r="J81" t="n">
-        <v>0.179085875052475</v>
+        <v>0.1373318448897413</v>
       </c>
     </row>
     <row r="82">
@@ -3383,22 +3383,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6776499683740981</v>
+        <v>0.847001969601503</v>
       </c>
       <c r="F82" t="n">
-        <v>0.997792944237005</v>
+        <v>1.09640809152806</v>
       </c>
       <c r="G82" t="n">
-        <v>1.636277572755418</v>
+        <v>1.290401446747108</v>
       </c>
       <c r="H82" t="n">
-        <v>1.682959630682663</v>
+        <v>1.330577273921827</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3223500316259016</v>
+        <v>0.1529980303984967</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2194611054439847</v>
+        <v>0.1423178880083286</v>
       </c>
     </row>
     <row r="83">
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.8505170855294931</v>
+        <v>0.9497932402501706</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8631590732458005</v>
+        <v>0.8548426078060293</v>
       </c>
       <c r="G83" t="n">
-        <v>1.276336316532558</v>
+        <v>1.209184590254436</v>
       </c>
       <c r="H83" t="n">
-        <v>4.270668613782511</v>
+        <v>3.325920736676296</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1494829144705067</v>
+        <v>0.05020675974982913</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.05260117373283113</v>
+        <v>-0.04245944950777747</v>
       </c>
     </row>
     <row r="84">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.6165448578752033</v>
+        <v>0.7674653154338714</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6511549345375118</v>
+        <v>0.6451294175040827</v>
       </c>
       <c r="G84" t="n">
-        <v>1.274323242339512</v>
+        <v>1.122486419259866</v>
       </c>
       <c r="H84" t="n">
-        <v>1.371209077685381</v>
+        <v>1.13707527848195</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3834551421247969</v>
+        <v>0.2325346845661289</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2366228358191844</v>
+        <v>0.2436868107070801</v>
       </c>
     </row>
     <row r="85">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.7149039705929313</v>
+        <v>0.8547535084285146</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8373689840067726</v>
+        <v>0.8654600389460575</v>
       </c>
       <c r="G85" t="n">
-        <v>1.395645710542496</v>
+        <v>1.20735748542047</v>
       </c>
       <c r="H85" t="n">
-        <v>2.441612440716851</v>
+        <v>1.931191096360026</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2850960294070685</v>
+        <v>0.145246491571485</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1344942558434456</v>
+        <v>0.11451508306921</v>
       </c>
     </row>
     <row r="86">
@@ -3527,22 +3527,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.6650573607484911</v>
+        <v>0.8986461243739274</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7309803577170216</v>
+        <v>0.8113405903882218</v>
       </c>
       <c r="G86" t="n">
-        <v>1.363795035223617</v>
+        <v>1.483214749923371</v>
       </c>
       <c r="H86" t="n">
-        <v>1.639505883150924</v>
+        <v>1.27012092992655</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3349426392515089</v>
+        <v>0.1013538756260726</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1622123306308848</v>
+        <v>0.0701102497352617</v>
       </c>
     </row>
     <row r="87">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.8279887746028035</v>
+        <v>0.940598859987181</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9279310670022668</v>
+        <v>0.8605321287214357</v>
       </c>
       <c r="G87" t="n">
-        <v>1.356543259884676</v>
+        <v>1.135007593530424</v>
       </c>
       <c r="H87" t="n">
-        <v>1.647812237524483</v>
+        <v>1.068648148782941</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1720112253971968</v>
+        <v>0.05940114001281949</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.03730261371304433</v>
+        <v>0.03804036953898593</v>
       </c>
     </row>
     <row r="88">
@@ -3599,22 +3599,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.6138837850802435</v>
+        <v>0.780206085256437</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9095885963359315</v>
+        <v>0.9859367996303928</v>
       </c>
       <c r="G88" t="n">
-        <v>1.722216788051133</v>
+        <v>1.461876538145043</v>
       </c>
       <c r="H88" t="n">
-        <v>1.643396823555429</v>
+        <v>1.273733630151758</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3861162149197562</v>
+        <v>0.2197939147435627</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1759967768159488</v>
+        <v>0.1068323591304473</v>
       </c>
     </row>
     <row r="89">
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.7023099734771794</v>
+        <v>0.8731503565391824</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8561666736850734</v>
+        <v>0.8859365062466837</v>
       </c>
       <c r="G89" t="n">
-        <v>1.480851694386476</v>
+        <v>1.360032960532946</v>
       </c>
       <c r="H89" t="n">
-        <v>1.643571648076945</v>
+        <v>1.204167569620416</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2976900265228205</v>
+        <v>0.1268496434608175</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1003021645779295</v>
+        <v>0.07166099280156446</v>
       </c>
     </row>
     <row r="90">
@@ -3671,22 +3671,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.6438099744320607</v>
+        <v>0.7408953994908428</v>
       </c>
       <c r="F90" t="n">
-        <v>0.909124962421059</v>
+        <v>0.9131211097220245</v>
       </c>
       <c r="G90" t="n">
-        <v>1.191963643800766</v>
+        <v>1.156401979899409</v>
       </c>
       <c r="H90" t="n">
-        <v>1.907743903158363</v>
+        <v>1.609898862565734</v>
       </c>
       <c r="I90" t="n">
-        <v>0.356190025567939</v>
+        <v>0.2591046005091567</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1920950031244016</v>
+        <v>0.1885437780385748</v>
       </c>
     </row>
     <row r="91">
@@ -3707,22 +3707,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.8492736680107066</v>
+        <v>0.9060804372130142</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8833009433712155</v>
+        <v>0.8487616736193686</v>
       </c>
       <c r="G91" t="n">
-        <v>1.735980608932185</v>
+        <v>1.319679551447621</v>
       </c>
       <c r="H91" t="n">
-        <v>3.883205769107779</v>
+        <v>2.213035531783718</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1507263319892931</v>
+        <v>0.09391956278698543</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04149606869611333</v>
+        <v>0.07897596282501329</v>
       </c>
     </row>
     <row r="92">
@@ -3743,22 +3743,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.6546939517060818</v>
+        <v>0.6978395081627748</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5380781827145743</v>
+        <v>0.5017768673551415</v>
       </c>
       <c r="G92" t="n">
-        <v>1.291807232073788</v>
+        <v>1.305204115983415</v>
       </c>
       <c r="H92" t="n">
-        <v>1.081635791331218</v>
+        <v>1.028060513849605</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3453060482939179</v>
+        <v>0.3021604918372248</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2672671686618747</v>
+        <v>0.316700813137895</v>
       </c>
     </row>
     <row r="93">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.7159258647162833</v>
+        <v>0.7816051149555437</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7768346961689493</v>
+        <v>0.754553216898845</v>
       </c>
       <c r="G93" t="n">
-        <v>1.406583828268913</v>
+        <v>1.260428549110148</v>
       </c>
       <c r="H93" t="n">
-        <v>2.29086182119912</v>
+        <v>1.616998302733019</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2840741352837167</v>
+        <v>0.2183948850444562</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1669527468274635</v>
+        <v>0.1947401846671611</v>
       </c>
     </row>
     <row r="94">
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.7089753005389581</v>
+        <v>0.7810346494877322</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8321344768159705</v>
+        <v>0.9019531966797715</v>
       </c>
       <c r="G94" t="n">
-        <v>1.193101594349417</v>
+        <v>1.114482806880932</v>
       </c>
       <c r="H94" t="n">
-        <v>2.848903776412719</v>
+        <v>2.522744251143001</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2910246994610417</v>
+        <v>0.2189653505122676</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2642362322184807</v>
+        <v>0.2025033202674797</v>
       </c>
     </row>
     <row r="95">
@@ -3851,22 +3851,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.8654848808846288</v>
+        <v>0.8975207437534353</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9254265157465748</v>
+        <v>0.9240541401534369</v>
       </c>
       <c r="G95" t="n">
-        <v>2.417563190283144</v>
+        <v>1.943109048440396</v>
       </c>
       <c r="H95" t="n">
-        <v>1.09123799231464</v>
+        <v>1.040658460700022</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1345151191153706</v>
+        <v>0.1024792562465642</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07158664952936333</v>
+        <v>0.07296345449534314</v>
       </c>
     </row>
     <row r="96">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.6246126301370922</v>
+        <v>0.6693768101523441</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6711527013639833</v>
+        <v>0.6673360797149197</v>
       </c>
       <c r="G96" t="n">
-        <v>1.2358048245674</v>
+        <v>1.158518509745392</v>
       </c>
       <c r="H96" t="n">
-        <v>1.204174113557386</v>
+        <v>1.10240644946375</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3753873698629082</v>
+        <v>0.3306231898476565</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2051463166054954</v>
+        <v>0.2096663844972227</v>
       </c>
     </row>
     <row r="97">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.7330242705202265</v>
+        <v>0.7826440677978374</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8095712313088429</v>
+        <v>0.8311144721827092</v>
       </c>
       <c r="G97" t="n">
-        <v>1.61548986973332</v>
+        <v>1.405370121688907</v>
       </c>
       <c r="H97" t="n">
-        <v>1.714771960761582</v>
+        <v>1.555269720435591</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2669757294797732</v>
+        <v>0.2173559322021622</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1803230661177797</v>
+        <v>0.161711053086682</v>
       </c>
     </row>
     <row r="98">
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.7109439640268272</v>
+        <v>0.8271003516464971</v>
       </c>
       <c r="F98" t="n">
-        <v>1.015677220986031</v>
+        <v>1.065834569679217</v>
       </c>
       <c r="G98" t="n">
-        <v>24.23701030809995</v>
+        <v>9.904628576083141</v>
       </c>
       <c r="H98" t="n">
-        <v>1.304341800544332</v>
+        <v>1.119621541051673</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2890560359731721</v>
+        <v>0.1728996483535022</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1290696997735035</v>
+        <v>0.08606041113994212</v>
       </c>
     </row>
     <row r="99">
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.8577214309819211</v>
+        <v>0.9280078465294759</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7999270459997654</v>
+        <v>0.7939895513558832</v>
       </c>
       <c r="G99" t="n">
-        <v>1.475036588466424</v>
+        <v>1.214285636948736</v>
       </c>
       <c r="H99" t="n">
-        <v>1.895036831878161</v>
+        <v>1.800152660425883</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1422785690180787</v>
+        <v>0.0719921534705239</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.04481277432511077</v>
+        <v>-0.03705760429749705</v>
       </c>
     </row>
     <row r="100">
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.6498939176280604</v>
+        <v>0.7076151951517692</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7825937718672847</v>
+        <v>0.8227263356542276</v>
       </c>
       <c r="G100" t="n">
-        <v>1.329662979691496</v>
+        <v>1.237378759792123</v>
       </c>
       <c r="H100" t="n">
-        <v>1.356956955013233</v>
+        <v>1.223425203208748</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3501060823719406</v>
+        <v>0.2923848048482318</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1766161343180263</v>
+        <v>0.1343917943111074</v>
       </c>
     </row>
     <row r="101">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.7395197708789362</v>
+        <v>0.8209077977759142</v>
       </c>
       <c r="F101" t="n">
-        <v>0.866066012951027</v>
+        <v>0.8941834855631096</v>
       </c>
       <c r="G101" t="n">
-        <v>9.013903292085958</v>
+        <v>4.118764324274667</v>
       </c>
       <c r="H101" t="n">
-        <v>1.518778529145242</v>
+        <v>1.381066468228769</v>
       </c>
       <c r="I101" t="n">
-        <v>0.260480229121064</v>
+        <v>0.179092202224086</v>
       </c>
       <c r="J101" t="n">
-        <v>0.08695768658880598</v>
+        <v>0.06113153371785033</v>
       </c>
     </row>
     <row r="102">
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.4817677300960921</v>
+        <v>0.562565347177586</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9797676243938382</v>
+        <v>0.9946842590681104</v>
       </c>
       <c r="G102" t="n">
-        <v>1.572948614699973</v>
+        <v>1.621030732619191</v>
       </c>
       <c r="H102" t="n">
-        <v>1.425557390921496</v>
+        <v>1.503901734040731</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5182322699039077</v>
+        <v>0.4374346528224138</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2335616894435665</v>
+        <v>0.221892922284609</v>
       </c>
     </row>
     <row r="103">
@@ -4139,22 +4139,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.6818402703830525</v>
+        <v>0.7909896837564563</v>
       </c>
       <c r="F103" t="n">
-        <v>0.817037253606797</v>
+        <v>0.8063452910074911</v>
       </c>
       <c r="G103" t="n">
-        <v>1.18069041967545</v>
+        <v>1.169260368042559</v>
       </c>
       <c r="H103" t="n">
-        <v>3.248546422873504</v>
+        <v>3.596152861387183</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3181597296169474</v>
+        <v>0.2090103162435435</v>
       </c>
       <c r="J103" t="n">
-        <v>0.003643246318447257</v>
+        <v>0.01668183066561324</v>
       </c>
     </row>
     <row r="104">
@@ -4175,22 +4175,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.356388749654508</v>
+        <v>0.4319449142418093</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4957182917189644</v>
+        <v>0.4736556078390049</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9846238985088188</v>
+        <v>1.135740245573425</v>
       </c>
       <c r="H104" t="n">
-        <v>1.050425653039656</v>
+        <v>1.037353209539951</v>
       </c>
       <c r="I104" t="n">
-        <v>0.6436112503454922</v>
+        <v>0.568055085758191</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4188479520104424</v>
+        <v>0.4447129929725654</v>
       </c>
     </row>
     <row r="105">
@@ -4211,22 +4211,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.5066655833778838</v>
+        <v>0.5951666483919508</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7641743899065334</v>
+        <v>0.7582283859715354</v>
       </c>
       <c r="G105" t="n">
-        <v>1.246087644294747</v>
+        <v>1.308677115411725</v>
       </c>
       <c r="H105" t="n">
-        <v>1.908176488944886</v>
+        <v>2.045802601655956</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4933344166221159</v>
+        <v>0.4048333516080491</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2186842959241517</v>
+        <v>0.2277625819742625</v>
       </c>
     </row>
     <row r="106">
@@ -4247,22 +4247,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.5432369604641379</v>
+        <v>0.6152072533401053</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6392097673138264</v>
+        <v>0.6751793384315065</v>
       </c>
       <c r="G106" t="n">
-        <v>1.484880787046524</v>
+        <v>1.400530470420122</v>
       </c>
       <c r="H106" t="n">
-        <v>1.359790962369018</v>
+        <v>1.352791708590237</v>
       </c>
       <c r="I106" t="n">
-        <v>0.4567630395358621</v>
+        <v>0.3847927466598947</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2673919954999157</v>
+        <v>0.2261667247566576</v>
       </c>
     </row>
     <row r="107">
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.7590422899718555</v>
+        <v>0.8461499219394318</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9391822522055705</v>
+        <v>0.9010553659056415</v>
       </c>
       <c r="G107" t="n">
-        <v>1.52889120380527</v>
+        <v>1.387958130705837</v>
       </c>
       <c r="H107" t="n">
-        <v>1.54896645148643</v>
+        <v>1.175470653268453</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2409577100281448</v>
+        <v>0.1538500780605685</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.04987993139727687</v>
+        <v>-0.007259180548378152</v>
       </c>
     </row>
     <row r="108">
@@ -4319,22 +4319,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.4401825707965011</v>
+        <v>0.4922661020462595</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6412178760325394</v>
+        <v>0.6747767106147374</v>
       </c>
       <c r="G108" t="n">
-        <v>1.492018698914574</v>
+        <v>1.331002440486897</v>
       </c>
       <c r="H108" t="n">
-        <v>1.061914827027825</v>
+        <v>1.187676308304205</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5598174292034986</v>
+        <v>0.5077338979537402</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4191158522188568</v>
+        <v>0.3887146488908647</v>
       </c>
     </row>
     <row r="109">
@@ -4355,22 +4355,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.5808206070774984</v>
+        <v>0.6512077591085987</v>
       </c>
       <c r="F109" t="n">
-        <v>0.739869965183979</v>
+        <v>0.7503371383172953</v>
       </c>
       <c r="G109" t="n">
-        <v>1.501930229922123</v>
+        <v>1.373163680537618</v>
       </c>
       <c r="H109" t="n">
-        <v>1.323557413627758</v>
+        <v>1.238646223387632</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4191793929225016</v>
+        <v>0.3487922408914012</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2122093054404981</v>
+        <v>0.2025407310330477</v>
       </c>
     </row>
     <row r="110">
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.5098718871785481</v>
+        <v>0.5115748329883135</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9185867571286148</v>
+        <v>0.9140344086564677</v>
       </c>
       <c r="G110" t="n">
-        <v>1.269991920769884</v>
+        <v>1.018936287088646</v>
       </c>
       <c r="H110" t="n">
-        <v>1.932185021619063</v>
+        <v>1.691015328032405</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4901281128214515</v>
+        <v>0.4884251670116861</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1836866637435443</v>
+        <v>0.1877321637905039</v>
       </c>
     </row>
     <row r="111">
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.7475472325568088</v>
+        <v>0.6894526036326534</v>
       </c>
       <c r="F111" t="n">
-        <v>0.869330865268294</v>
+        <v>0.9012989074507066</v>
       </c>
       <c r="G111" t="n">
-        <v>1.957295819469255</v>
+        <v>1.269395220446964</v>
       </c>
       <c r="H111" t="n">
-        <v>3.93555917149098</v>
+        <v>2.780553969480608</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2524527674431909</v>
+        <v>0.3105473963673464</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05665553940964696</v>
+        <v>0.02196578351401268</v>
       </c>
     </row>
     <row r="112">
@@ -4463,22 +4463,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.4510640306417193</v>
+        <v>0.4280056423333494</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4142208229019161</v>
+        <v>0.4485887448783364</v>
       </c>
       <c r="G112" t="n">
-        <v>1.208698309580374</v>
+        <v>0.9482239400652085</v>
       </c>
       <c r="H112" t="n">
-        <v>1.008364501426345</v>
+        <v>0.8231217377744805</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5489359693582805</v>
+        <v>0.5719943576666504</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4359310484715769</v>
+        <v>0.389130219919217</v>
       </c>
     </row>
     <row r="113">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.5694943834590253</v>
+        <v>0.5430110263181053</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7340461484329418</v>
+        <v>0.75464068699517</v>
       </c>
       <c r="G113" t="n">
-        <v>1.478662016606505</v>
+        <v>1.07885181586694</v>
       </c>
       <c r="H113" t="n">
-        <v>2.292036231512129</v>
+        <v>1.764897011762497</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4305056165409747</v>
+        <v>0.4569889736818946</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2254244172082559</v>
+        <v>0.1996093890745781</v>
       </c>
     </row>
     <row r="114">
@@ -4535,22 +4535,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.6212997236032178</v>
+        <v>0.3810211868198193</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7954803405326772</v>
+        <v>0.7668764706233042</v>
       </c>
       <c r="G114" t="n">
-        <v>1.132327117636669</v>
+        <v>0.9051202470340859</v>
       </c>
       <c r="H114" t="n">
-        <v>2.653810285969602</v>
+        <v>3.858297744268215</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3787002763967821</v>
+        <v>0.6189788131801807</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2966453994479951</v>
+        <v>0.3219366134092055</v>
       </c>
     </row>
     <row r="115">
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.8399289761009912</v>
+        <v>0.5167102903293935</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9499926736631313</v>
+        <v>1.018430124466674</v>
       </c>
       <c r="G115" t="n">
-        <v>2.241616078521266</v>
+        <v>2.010247890598868</v>
       </c>
       <c r="H115" t="n">
-        <v>1.090704575770076</v>
+        <v>1.242501128727304</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1600710238990083</v>
+        <v>0.4832897096706061</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04694120379010724</v>
+        <v>-0.02171713041261203</v>
       </c>
     </row>
     <row r="116">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.4572878235969725</v>
+        <v>0.278225369179645</v>
       </c>
       <c r="F116" t="n">
-        <v>0.530089874007271</v>
+        <v>0.4654252828147908</v>
       </c>
       <c r="G116" t="n">
-        <v>1.115847040965526</v>
+        <v>0.9589956942247625</v>
       </c>
       <c r="H116" t="n">
-        <v>1.057544938133436</v>
+        <v>1.137801112647492</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5427121764030278</v>
+        <v>0.7217746308203552</v>
       </c>
       <c r="J116" t="n">
-        <v>0.3722086076260869</v>
+        <v>0.4487916093633737</v>
       </c>
     </row>
     <row r="117">
@@ -4643,22 +4643,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.6395055077670607</v>
+        <v>0.3919856154429526</v>
       </c>
       <c r="F117" t="n">
-        <v>0.75852096273436</v>
+        <v>0.7502439593015896</v>
       </c>
       <c r="G117" t="n">
-        <v>1.49659674570782</v>
+        <v>1.291454610619239</v>
       </c>
       <c r="H117" t="n">
-        <v>1.600686599957705</v>
+        <v>2.07953332854767</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3604944922329389</v>
+        <v>0.608014384557047</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2385984036213963</v>
+        <v>0.249670364119989</v>
       </c>
     </row>
     <row r="118">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.4544778053680634</v>
+        <v>0.4693282991933327</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9642905452050892</v>
+        <v>0.9363143897148472</v>
       </c>
       <c r="G118" t="n">
-        <v>38.55617732700864</v>
+        <v>34.72946200031757</v>
       </c>
       <c r="H118" t="n">
-        <v>1.394310721862555</v>
+        <v>1.469127656614136</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5455221946319362</v>
+        <v>0.5306717008066668</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1731331207509764</v>
+        <v>0.1971223183000221</v>
       </c>
     </row>
     <row r="119">
@@ -4715,22 +4715,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.6969591109924804</v>
+        <v>0.7071004513955733</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8835085960639167</v>
+        <v>0.9405773589787205</v>
       </c>
       <c r="G119" t="n">
-        <v>1.377769108420853</v>
+        <v>1.375528842088607</v>
       </c>
       <c r="H119" t="n">
-        <v>2.668383608745298</v>
+        <v>2.719997541376052</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3030408890075195</v>
+        <v>0.2928995486044266</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.1539815687065733</v>
+        <v>-0.2285210817865393</v>
       </c>
     </row>
     <row r="120">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.4022789378051437</v>
+        <v>0.4168848841892639</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5315006898591284</v>
+        <v>0.5385282422804051</v>
       </c>
       <c r="G120" t="n">
-        <v>1.140911522276424</v>
+        <v>1.177626104723566</v>
       </c>
       <c r="H120" t="n">
-        <v>1.081048667757459</v>
+        <v>1.095806919608666</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5977210621948568</v>
+        <v>0.5831151158107367</v>
       </c>
       <c r="J120" t="n">
-        <v>0.440796606923343</v>
+        <v>0.4334027667384062</v>
       </c>
     </row>
     <row r="121">
@@ -4787,22 +4787,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.517905284721896</v>
+        <v>0.5311045449260566</v>
       </c>
       <c r="F121" t="n">
-        <v>0.793099943709378</v>
+        <v>0.8051399969913242</v>
       </c>
       <c r="G121" t="n">
-        <v>13.6916193192353</v>
+        <v>12.42753898237658</v>
       </c>
       <c r="H121" t="n">
-        <v>1.714580999455103</v>
+        <v>1.761644039199618</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4820947152781041</v>
+        <v>0.4688954550739434</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1533160529892485</v>
+        <v>0.1340013344172961</v>
       </c>
     </row>
   </sheetData>
